--- a/Figure3 and Supplement3/kma/kma_RNA_DE_OrthologyMatching.xlsx
+++ b/Figure3 and Supplement3/kma/kma_RNA_DE_OrthologyMatching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doughty/Documents/GitHub/CHASSY_multiOmics_Analysis/Figure3 and Supplement3/kma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64007C36-4084-3041-A49A-98D232F4278C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D9B806-9EDB-B142-9320-7FE00454B298}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36660" yWindow="2300" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2003,7 +2003,7 @@
   <dimension ref="A1:N213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H24"/>
+      <selection activeCell="D11" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2024,156 +2024,156 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>2.5757295151916102</v>
+        <v>-4.0839202445348803</v>
       </c>
       <c r="C2" s="1">
-        <v>1.01030163048979E-29</v>
+        <v>5.7553694554041699E-9</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B3">
-        <v>1.8658441632071601</v>
+        <v>-1.48787959577076</v>
       </c>
       <c r="C3" s="1">
-        <v>1.6087230246714E-22</v>
+        <v>4.51489410659938E-8</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="B4">
-        <v>1.33958843065547</v>
+        <v>-2.5825899842064199</v>
       </c>
       <c r="C4" s="1">
-        <v>4.3826020369934799E-21</v>
+        <v>6.4928942163783998E-7</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="B5">
-        <v>1.36860035748399</v>
+        <v>1.1282167238725</v>
       </c>
       <c r="C5" s="1">
-        <v>1.057086874744E-19</v>
+        <v>9.4215765245651194E-5</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="B6">
-        <v>-2.8511931869606202</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.8127896093143101E-18</v>
+        <v>2.6370720418819702</v>
+      </c>
+      <c r="C6">
+        <v>1.1911009028625399E-4</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>-4.6566352070629202</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.9790292960185703E-17</v>
+        <v>3.3256092345299999</v>
+      </c>
+      <c r="C7">
+        <v>1.21422835629341E-4</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B8">
-        <v>1.1159435574488801</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.98127265812873E-15</v>
+        <v>-1.3562165172542899</v>
+      </c>
+      <c r="C8">
+        <v>4.2390719774676802E-4</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="B9">
-        <v>-1.2959931743030799</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7.6974156656846694E-14</v>
+        <v>1.78439225827228</v>
+      </c>
+      <c r="C9">
+        <v>4.6251327262112902E-4</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="B10">
-        <v>-3.39543822902171</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.2111677594735399E-13</v>
+        <v>-1.76674642463557</v>
+      </c>
+      <c r="C10">
+        <v>6.84293365840741E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="B11">
-        <v>-2.2506767023696499</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.2111677594735399E-13</v>
+        <v>1.81600559496758</v>
+      </c>
+      <c r="C11">
+        <v>9.7798235851292506E-3</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="B12">
-        <v>1.5413353762326001</v>
+        <v>-1.2959931743030799</v>
       </c>
       <c r="C12" s="1">
-        <v>2.0271720230723901E-13</v>
+        <v>7.6974156656846694E-14</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H12" t="s">
         <v>307</v>
@@ -2225,16 +2225,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B14">
-        <v>1.09437779499278</v>
+        <v>1.49539930607521</v>
       </c>
       <c r="C14" s="1">
-        <v>5.3335280056224697E-12</v>
+        <v>1.03841755440442E-11</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G14" t="s">
         <v>318</v>
@@ -2260,16 +2260,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B15">
-        <v>4.8484158962887198</v>
+        <v>1.1225052891702401</v>
       </c>
       <c r="C15" s="1">
-        <v>1.02554199979224E-11</v>
+        <v>4.5557506248469802E-11</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G15" t="s">
         <v>320</v>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="B16">
-        <v>1.49539930607521</v>
+        <v>-1.4223554650014301</v>
       </c>
       <c r="C16" s="1">
-        <v>1.03841755440442E-11</v>
+        <v>8.0019183686566706E-11</v>
       </c>
       <c r="D16" t="s">
         <v>304</v>
@@ -2330,16 +2330,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B17">
-        <v>-1.3375131291722699</v>
+        <v>-2.4591714476762201</v>
       </c>
       <c r="C17" s="1">
-        <v>1.15244371550712E-11</v>
+        <v>1.6344785741854099E-10</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G17" t="s">
         <v>322</v>
@@ -2365,16 +2365,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="B18">
-        <v>-7.2594228038347097</v>
+        <v>1.6401868797152099</v>
       </c>
       <c r="C18" s="1">
-        <v>1.9673811986510001E-11</v>
+        <v>8.0275912097596997E-10</v>
       </c>
       <c r="D18" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G18" t="s">
         <v>323</v>
@@ -2400,13 +2400,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B19">
-        <v>1.1225052891702401</v>
+        <v>-1.00434473194149</v>
       </c>
       <c r="C19" s="1">
-        <v>4.5557506248469802E-11</v>
+        <v>1.16018883756954E-9</v>
       </c>
       <c r="D19" t="s">
         <v>304</v>
@@ -2414,27 +2414,27 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="B20">
-        <v>1.6348192120052401</v>
+        <v>-1.0719799227459801</v>
       </c>
       <c r="C20" s="1">
-        <v>6.6866374269948698E-11</v>
+        <v>2.9362982048832799E-9</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="B21">
-        <v>-1.4223554650014301</v>
+        <v>-1.1288006372784101</v>
       </c>
       <c r="C21" s="1">
-        <v>8.0019183686566706E-11</v>
+        <v>3.9599783066571902E-9</v>
       </c>
       <c r="D21" t="s">
         <v>304</v>
@@ -2442,30 +2442,30 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B22">
-        <v>-1.0333729177318201</v>
+        <v>1.22176401968986</v>
       </c>
       <c r="C22" s="1">
-        <v>8.0019183686566706E-11</v>
+        <v>2.2877139261979901E-8</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>1.1899449861252001</v>
+        <v>-2.9097891788926402</v>
       </c>
       <c r="C23" s="1">
-        <v>9.5346022821921505E-11</v>
+        <v>1.6066615212551399E-7</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H23" t="s">
         <v>378</v>
@@ -2473,16 +2473,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B24">
-        <v>1.2153686565512301</v>
+        <v>1.1424545432807001</v>
       </c>
       <c r="C24" s="1">
-        <v>1.11656313724488E-10</v>
+        <v>1.6692296763951801E-7</v>
       </c>
       <c r="D24" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H24">
         <v>7.0601851851851842</v>
@@ -2490,27 +2490,27 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="B25">
-        <v>5.5090882156457699</v>
+        <v>-1.2053036235098</v>
       </c>
       <c r="C25" s="1">
-        <v>1.23550939655744E-10</v>
+        <v>3.2762081979999199E-7</v>
       </c>
       <c r="D25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="B26">
-        <v>-2.4591714476762201</v>
+        <v>1.6525038610551299</v>
       </c>
       <c r="C26" s="1">
-        <v>1.6344785741854099E-10</v>
+        <v>4.6149401788998101E-7</v>
       </c>
       <c r="D26" t="s">
         <v>304</v>
@@ -2518,125 +2518,125 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B27">
-        <v>1.13550870625939</v>
+        <v>-1.2881363519311999</v>
       </c>
       <c r="C27" s="1">
-        <v>2.2768931834284899E-10</v>
+        <v>5.2959544517463604E-7</v>
       </c>
       <c r="D27" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="B28">
-        <v>-1.1982033476165399</v>
+        <v>1.0115983108928299</v>
       </c>
       <c r="C28" s="1">
-        <v>2.9648070000687202E-10</v>
+        <v>1.30007045551115E-6</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="B29">
-        <v>-1.0048808388722701</v>
+        <v>-1.1874771189265201</v>
       </c>
       <c r="C29" s="1">
-        <v>3.3808639364170402E-10</v>
+        <v>1.3398747184582E-6</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="B30">
-        <v>-1.5139110426593601</v>
+        <v>1.4348859361653099</v>
       </c>
       <c r="C30" s="1">
-        <v>3.4722138556907998E-10</v>
+        <v>1.42295494950274E-6</v>
       </c>
       <c r="D30" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="B31">
-        <v>1.0655677937955099</v>
+        <v>-1.10100947711341</v>
       </c>
       <c r="C31" s="1">
-        <v>5.2749907379159097E-10</v>
+        <v>2.6992480325474599E-6</v>
       </c>
       <c r="D31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="B32">
-        <v>-1.3365340886249</v>
+        <v>-1.1235550396732501</v>
       </c>
       <c r="C32" s="1">
-        <v>5.3494611239306995E-10</v>
+        <v>3.08818351385854E-6</v>
       </c>
       <c r="D32" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>1.2038439839653201</v>
+        <v>-3.25186146457383</v>
       </c>
       <c r="C33" s="1">
-        <v>6.5764194710501304E-10</v>
+        <v>4.4029663454411003E-6</v>
       </c>
       <c r="D33" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="B34">
-        <v>-2.8951685124467201</v>
+        <v>1.9479069022925299</v>
       </c>
       <c r="C34" s="1">
-        <v>7.0245498204460502E-10</v>
+        <v>5.0833181699360801E-6</v>
       </c>
       <c r="D34" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="B35">
-        <v>1.6401868797152099</v>
+        <v>-1.4079438630836001</v>
       </c>
       <c r="C35" s="1">
-        <v>8.0275912097596997E-10</v>
+        <v>5.4527211305408497E-6</v>
       </c>
       <c r="D35" t="s">
         <v>304</v>
@@ -2644,41 +2644,41 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="B36">
-        <v>1.5823202296235399</v>
+        <v>1.3656233170038801</v>
       </c>
       <c r="C36" s="1">
-        <v>8.9396652749406896E-10</v>
+        <v>6.80029847536126E-6</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="B37">
-        <v>1.18467159704321</v>
+        <v>1.03208412945345</v>
       </c>
       <c r="C37" s="1">
-        <v>1.00986417018772E-9</v>
+        <v>9.2346357863129605E-6</v>
       </c>
       <c r="D37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="B38">
-        <v>-1.00434473194149</v>
+        <v>-2.5900423958494301</v>
       </c>
       <c r="C38" s="1">
-        <v>1.16018883756954E-9</v>
+        <v>1.04653520218193E-5</v>
       </c>
       <c r="D38" t="s">
         <v>304</v>
@@ -2686,27 +2686,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="B39">
-        <v>-1.48885627877131</v>
+        <v>-1.23149188966778</v>
       </c>
       <c r="C39" s="1">
-        <v>2.54384763028412E-9</v>
+        <v>1.1555158248121399E-5</v>
       </c>
       <c r="D39" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="B40">
-        <v>-1.0719799227459801</v>
+        <v>1.0206412873108299</v>
       </c>
       <c r="C40" s="1">
-        <v>2.9362982048832799E-9</v>
+        <v>1.20279800894821E-5</v>
       </c>
       <c r="D40" t="s">
         <v>304</v>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="B41">
-        <v>-1.1288006372784101</v>
+        <v>-1.25489385857423</v>
       </c>
       <c r="C41" s="1">
-        <v>3.9599783066571902E-9</v>
+        <v>1.26299252097478E-5</v>
       </c>
       <c r="D41" t="s">
         <v>304</v>
@@ -2728,139 +2728,139 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="B42">
-        <v>1.06668727486172</v>
+        <v>-1.0507602362625099</v>
       </c>
       <c r="C42" s="1">
-        <v>4.1794059308417204E-9</v>
+        <v>1.48723392379251E-5</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>335</v>
       </c>
       <c r="B43">
-        <v>1.07019507143133</v>
+        <v>-1.1045875933427001</v>
       </c>
       <c r="C43" s="1">
-        <v>4.8842080911643804E-9</v>
+        <v>2.5176316393821201E-5</v>
       </c>
       <c r="D43" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-2.68959209011047</v>
+        <v>-1.39839094571625</v>
       </c>
       <c r="C44" s="1">
-        <v>5.0762370998985899E-9</v>
+        <v>3.7287211659073403E-5</v>
       </c>
       <c r="D44" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="B45">
-        <v>-4.0839202445348803</v>
+        <v>1.54421166667812</v>
       </c>
       <c r="C45" s="1">
-        <v>5.7553694554041699E-9</v>
+        <v>3.7287211659073403E-5</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B46">
-        <v>1.0256804616350399</v>
+        <v>-1.0266401353794901</v>
       </c>
       <c r="C46" s="1">
-        <v>7.0074696073224901E-9</v>
+        <v>4.8915819384857397E-5</v>
       </c>
       <c r="D46" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>327</v>
+        <v>158</v>
       </c>
       <c r="B47">
-        <v>-1.1371739998447301</v>
+        <v>-1.2732395099937901</v>
       </c>
       <c r="C47" s="1">
-        <v>7.2683177193151401E-9</v>
+        <v>4.9386727740817197E-5</v>
       </c>
       <c r="D47" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="B48">
-        <v>1.1000794130668801</v>
+        <v>1.22887357982485</v>
       </c>
       <c r="C48" s="1">
-        <v>1.22783061719223E-8</v>
+        <v>4.9653250602993002E-5</v>
       </c>
       <c r="D48" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>-2.0567659487255301</v>
+        <v>1.0468793190071699</v>
       </c>
       <c r="C49" s="1">
-        <v>1.60196401924715E-8</v>
+        <v>6.8929846309145204E-5</v>
       </c>
       <c r="D49" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="B50">
-        <v>-3.1331961123886098</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1.9287825075677299E-8</v>
+        <v>-1.07833548621485</v>
+      </c>
+      <c r="C50">
+        <v>1.2181248403647899E-4</v>
       </c>
       <c r="D50" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B51">
-        <v>1.22176401968986</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2.2877139261979901E-8</v>
+        <v>1.06841836548959</v>
+      </c>
+      <c r="C51">
+        <v>1.4547148740870201E-4</v>
       </c>
       <c r="D51" t="s">
         <v>304</v>
@@ -2868,167 +2868,167 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>1.3378791988980201</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2.7594138703284299E-8</v>
+        <v>-2.10709122400662</v>
+      </c>
+      <c r="C52">
+        <v>1.49577059508009E-4</v>
       </c>
       <c r="D52" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B53">
-        <v>-1.6706655908465</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3.6770431662956799E-8</v>
+        <v>3.4832539697208902</v>
+      </c>
+      <c r="C53">
+        <v>1.5415513179761799E-4</v>
       </c>
       <c r="D53" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B54">
-        <v>-1.48787959577076</v>
-      </c>
-      <c r="C54" s="1">
-        <v>4.51489410659938E-8</v>
+        <v>1.66112573891751</v>
+      </c>
+      <c r="C54">
+        <v>1.54202777693294E-4</v>
       </c>
       <c r="D54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="B55">
-        <v>1.05311805324102</v>
-      </c>
-      <c r="C55" s="1">
-        <v>7.0803621216243996E-8</v>
+        <v>-1.4539203278283599</v>
+      </c>
+      <c r="C55">
+        <v>2.0870498216927499E-4</v>
       </c>
       <c r="D55" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>329</v>
+        <v>247</v>
       </c>
       <c r="B56">
-        <v>1.1236672494364699</v>
-      </c>
-      <c r="C56" s="1">
-        <v>7.5272931632964405E-8</v>
+        <v>1.66919960162299</v>
+      </c>
+      <c r="C56">
+        <v>4.0103418630320998E-4</v>
       </c>
       <c r="D56" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="B57">
-        <v>-1.43991780768906</v>
-      </c>
-      <c r="C57" s="1">
-        <v>8.1393819046861396E-8</v>
+        <v>-1.16296319186424</v>
+      </c>
+      <c r="C57">
+        <v>5.0686152216145996E-4</v>
       </c>
       <c r="D57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B58">
-        <v>-1.6875718527182</v>
-      </c>
-      <c r="C58" s="1">
-        <v>9.44816293394785E-8</v>
+        <v>-1.4517333150135401</v>
+      </c>
+      <c r="C58">
+        <v>5.8774747372799E-4</v>
       </c>
       <c r="D58" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="B59">
-        <v>1.1233575954217601</v>
-      </c>
-      <c r="C59" s="1">
-        <v>9.63023058120745E-8</v>
+        <v>-1.28455974135541</v>
+      </c>
+      <c r="C59">
+        <v>9.1137282370335197E-4</v>
       </c>
       <c r="D59" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="B60">
-        <v>2.3151224123765899</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1.07973126223354E-7</v>
+        <v>-1.02557247650206</v>
+      </c>
+      <c r="C60">
+        <v>9.4709869738855603E-4</v>
       </c>
       <c r="D60" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B61">
-        <v>1.7464377627647301</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1.2243864446891401E-7</v>
+        <v>-1.1756338298564999</v>
+      </c>
+      <c r="C61">
+        <v>1.4183705872562601E-3</v>
       </c>
       <c r="D61" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="B62">
-        <v>1.0766814029743601</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1.4610363687224999E-7</v>
+        <v>-1.3527244785560699</v>
+      </c>
+      <c r="C62">
+        <v>4.03303482839558E-3</v>
       </c>
       <c r="D62" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="B63">
-        <v>-2.9097891788926402</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1.6066615212551399E-7</v>
+        <v>1.52297044252572</v>
+      </c>
+      <c r="C63">
+        <v>4.1637857361514104E-3</v>
       </c>
       <c r="D63" t="s">
         <v>304</v>
@@ -3036,13 +3036,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>263</v>
+        <v>141</v>
       </c>
       <c r="B64">
-        <v>1.1424545432807001</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1.6692296763951801E-7</v>
+        <v>1.38199290504332</v>
+      </c>
+      <c r="C64">
+        <v>5.5378404432670104E-3</v>
       </c>
       <c r="D64" t="s">
         <v>304</v>
@@ -3050,41 +3050,41 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="B65">
-        <v>2.1477962132065498</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2.4225182768345299E-7</v>
+        <v>-1.9195018149031799</v>
+      </c>
+      <c r="C65">
+        <v>7.6839556454405301E-3</v>
       </c>
       <c r="D65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="B66">
-        <v>-1.2053036235098</v>
+        <v>1.5413353762326001</v>
       </c>
       <c r="C66" s="1">
-        <v>3.2762081979999199E-7</v>
+        <v>2.0271720230723901E-13</v>
       </c>
       <c r="D66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="B67">
-        <v>-1.9120809667638901</v>
+        <v>1.0256804616350399</v>
       </c>
       <c r="C67" s="1">
-        <v>3.3766898001509702E-7</v>
+        <v>7.0074696073224901E-9</v>
       </c>
       <c r="D67" t="s">
         <v>302</v>
@@ -3092,72 +3092,72 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="B68">
-        <v>1.4253722856292399</v>
+        <v>1.1000794130668801</v>
       </c>
       <c r="C68" s="1">
-        <v>3.3766898001509702E-7</v>
+        <v>1.22783061719223E-8</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="B69">
-        <v>1.3467916840954299</v>
+        <v>-2.0567659487255301</v>
       </c>
       <c r="C69" s="1">
-        <v>3.8302419817884098E-7</v>
+        <v>1.60196401924715E-8</v>
       </c>
       <c r="D69" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="B70">
-        <v>-2.5903070292646602</v>
+        <v>-1.6875718527182</v>
       </c>
       <c r="C70" s="1">
-        <v>4.0325413512634601E-7</v>
+        <v>9.44816293394785E-8</v>
       </c>
       <c r="D70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B71">
-        <v>1.6525038610551299</v>
+        <v>1.0766814029743601</v>
       </c>
       <c r="C71" s="1">
-        <v>4.6149401788998101E-7</v>
+        <v>1.4610363687224999E-7</v>
       </c>
       <c r="D71" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="B72">
-        <v>-1.2881363519311999</v>
+        <v>-1.9120809667638901</v>
       </c>
       <c r="C72" s="1">
-        <v>5.2959544517463604E-7</v>
+        <v>3.3766898001509702E-7</v>
       </c>
       <c r="D72" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3176,55 +3176,55 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>193</v>
+        <v>294</v>
       </c>
       <c r="B74">
-        <v>-1.5020273514795901</v>
+        <v>4.9601147619548502</v>
       </c>
       <c r="C74" s="1">
         <v>6.0238630003276398E-7</v>
       </c>
       <c r="D74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="B75">
-        <v>-1.1145923445039101</v>
+        <v>1.18191548954124</v>
       </c>
       <c r="C75" s="1">
-        <v>6.0238630003276398E-7</v>
+        <v>7.2160821007643004E-7</v>
       </c>
       <c r="D75" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="B76">
-        <v>1.3843500904072299</v>
+        <v>-1.2101380996448301</v>
       </c>
       <c r="C76" s="1">
-        <v>6.0238630003276398E-7</v>
+        <v>1.5330914519137299E-5</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="B77">
-        <v>4.9601147619548502</v>
+        <v>1.1623068928376299</v>
       </c>
       <c r="C77" s="1">
-        <v>6.0238630003276398E-7</v>
+        <v>4.1567434393648897E-5</v>
       </c>
       <c r="D77" t="s">
         <v>302</v>
@@ -3232,27 +3232,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B78">
-        <v>-2.5825899842064199</v>
+        <v>-1.64559498051763</v>
       </c>
       <c r="C78" s="1">
-        <v>6.4928942163783998E-7</v>
+        <v>5.4338245955111597E-5</v>
       </c>
       <c r="D78" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="B79">
-        <v>1.18191548954124</v>
+        <v>-1.04238769622896</v>
       </c>
       <c r="C79" s="1">
-        <v>7.2160821007643004E-7</v>
+        <v>6.0876986892055298E-5</v>
       </c>
       <c r="D79" t="s">
         <v>302</v>
@@ -3260,251 +3260,251 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="B80">
-        <v>1.45749559254772</v>
+        <v>1.5149466628239201</v>
       </c>
       <c r="C80" s="1">
-        <v>1.0572816783592E-6</v>
+        <v>8.8629051622514594E-5</v>
       </c>
       <c r="D80" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
       <c r="B81">
-        <v>1.0115983108928299</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1.30007045551115E-6</v>
+        <v>1.19751776113765</v>
+      </c>
+      <c r="C81">
+        <v>1.00214811062039E-4</v>
       </c>
       <c r="D81" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="B82">
-        <v>-1.1874771189265201</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1.3398747184582E-6</v>
+        <v>1.0198983136995801</v>
+      </c>
+      <c r="C82">
+        <v>1.6382418456945699E-4</v>
       </c>
       <c r="D82" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="B83">
-        <v>1.9913890198211599</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1.3398747184582E-6</v>
+        <v>2.2790437183115699</v>
+      </c>
+      <c r="C83">
+        <v>1.95247752634912E-4</v>
       </c>
       <c r="D83" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>331</v>
+        <v>33</v>
       </c>
       <c r="B84">
-        <v>1.4348859361653099</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1.42295494950274E-6</v>
+        <v>1.5475423847104499</v>
+      </c>
+      <c r="C84">
+        <v>2.2216776442646701E-4</v>
       </c>
       <c r="D84" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>332</v>
+        <v>173</v>
       </c>
       <c r="B85">
-        <v>-1.10100947711341</v>
-      </c>
-      <c r="C85" s="1">
-        <v>2.6992480325474599E-6</v>
+        <v>-1.2190507434120299</v>
+      </c>
+      <c r="C85">
+        <v>3.1921545651152999E-4</v>
       </c>
       <c r="D85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="B86">
-        <v>-1.1235550396732501</v>
-      </c>
-      <c r="C86" s="1">
-        <v>3.08818351385854E-6</v>
+        <v>1.01692586481013</v>
+      </c>
+      <c r="C86">
+        <v>4.6781042673750903E-4</v>
       </c>
       <c r="D86" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="B87">
-        <v>1.3057160944911099</v>
-      </c>
-      <c r="C87" s="1">
-        <v>3.1533659790655401E-6</v>
+        <v>1.08777085916986</v>
+      </c>
+      <c r="C87">
+        <v>8.3357088956746499E-4</v>
       </c>
       <c r="D87" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B88">
-        <v>1.1454032696417</v>
-      </c>
-      <c r="C88" s="1">
-        <v>3.49996091561702E-6</v>
+        <v>-2.0927028139918402</v>
+      </c>
+      <c r="C88">
+        <v>1.59848423426843E-3</v>
       </c>
       <c r="D88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="B89">
-        <v>-1.7776538766622201</v>
-      </c>
-      <c r="C89" s="1">
-        <v>4.1746807832384299E-6</v>
+        <v>-1.1625367444333501</v>
+      </c>
+      <c r="C89">
+        <v>1.9000392603005299E-3</v>
       </c>
       <c r="D89" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B90">
-        <v>-1.06792482979273</v>
-      </c>
-      <c r="C90" s="1">
-        <v>4.1746807832384299E-6</v>
+        <v>1.6812274841819399</v>
+      </c>
+      <c r="C90">
+        <v>2.0559841630137499E-3</v>
       </c>
       <c r="D90" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="B91">
-        <v>1.80232921017434</v>
-      </c>
-      <c r="C91" s="1">
-        <v>4.1746807832384299E-6</v>
+        <v>1.4862649716456</v>
+      </c>
+      <c r="C91">
+        <v>3.36924209957033E-3</v>
       </c>
       <c r="D91" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="B92">
-        <v>-3.25186146457383</v>
-      </c>
-      <c r="C92" s="1">
-        <v>4.4029663454411003E-6</v>
+        <v>1.2133087169093</v>
+      </c>
+      <c r="C92">
+        <v>3.6342818119166399E-3</v>
       </c>
       <c r="D92" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="B93">
-        <v>1.17875433672106</v>
-      </c>
-      <c r="C93" s="1">
-        <v>4.5674037259609796E-6</v>
+        <v>-1.08443463467864</v>
+      </c>
+      <c r="C93">
+        <v>5.9651848327189599E-3</v>
       </c>
       <c r="D93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>287</v>
+        <v>198</v>
       </c>
       <c r="B94">
-        <v>1.9479069022925299</v>
-      </c>
-      <c r="C94" s="1">
-        <v>5.0833181699360801E-6</v>
+        <v>2.9717575510658301</v>
+      </c>
+      <c r="C94">
+        <v>6.7794869156886303E-3</v>
       </c>
       <c r="D94" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>243</v>
+        <v>347</v>
       </c>
       <c r="B95">
-        <v>-1.4079438630836001</v>
-      </c>
-      <c r="C95" s="1">
-        <v>5.4527211305408497E-6</v>
+        <v>1.0016598415673801</v>
+      </c>
+      <c r="C95">
+        <v>7.2221290825454903E-3</v>
       </c>
       <c r="D95" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="B96">
-        <v>1.3656233170038801</v>
-      </c>
-      <c r="C96" s="1">
-        <v>6.80029847536126E-6</v>
+        <v>1.30529580871853</v>
+      </c>
+      <c r="C96">
+        <v>9.3062102412774707E-3</v>
       </c>
       <c r="D96" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="B97">
-        <v>-1.0313690339756301</v>
+        <v>2.5757295151916102</v>
       </c>
       <c r="C97" s="1">
-        <v>7.7311582904055694E-6</v>
+        <v>1.01030163048979E-29</v>
       </c>
       <c r="D97" t="s">
         <v>303</v>
@@ -3512,41 +3512,41 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="B98">
-        <v>1.60131625078446</v>
+        <v>-4.6566352070629202</v>
       </c>
       <c r="C98" s="1">
-        <v>9.0491930012687102E-6</v>
+        <v>2.9790292960185703E-17</v>
       </c>
       <c r="D98" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="B99">
-        <v>1.03208412945345</v>
+        <v>1.1159435574488801</v>
       </c>
       <c r="C99" s="1">
-        <v>9.2346357863129605E-6</v>
+        <v>2.98127265812873E-15</v>
       </c>
       <c r="D99" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B100">
-        <v>-2.76294035714974</v>
+        <v>-3.39543822902171</v>
       </c>
       <c r="C100" s="1">
-        <v>9.5031392797540308E-6</v>
+        <v>1.2111677594735399E-13</v>
       </c>
       <c r="D100" t="s">
         <v>303</v>
@@ -3554,349 +3554,349 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="B101">
-        <v>-2.5900423958494301</v>
+        <v>-2.2506767023696499</v>
       </c>
       <c r="C101" s="1">
-        <v>1.04653520218193E-5</v>
+        <v>1.2111677594735399E-13</v>
       </c>
       <c r="D101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B102">
-        <v>-4.2392374375983097</v>
+        <v>-1.3375131291722699</v>
       </c>
       <c r="C102" s="1">
-        <v>1.1465533496115701E-5</v>
+        <v>1.15244371550712E-11</v>
       </c>
       <c r="D102" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>-1.23149188966778</v>
+        <v>5.5090882156457699</v>
       </c>
       <c r="C103" s="1">
-        <v>1.1555158248121399E-5</v>
+        <v>1.23550939655744E-10</v>
       </c>
       <c r="D103" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B104">
-        <v>1.2946668553382701</v>
+        <v>-1.1982033476165399</v>
       </c>
       <c r="C104" s="1">
-        <v>1.15796326545259E-5</v>
+        <v>2.9648070000687202E-10</v>
       </c>
       <c r="D104" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="B105">
-        <v>1.0206412873108299</v>
+        <v>1.0655677937955099</v>
       </c>
       <c r="C105" s="1">
-        <v>1.20279800894821E-5</v>
+        <v>5.2749907379159097E-10</v>
       </c>
       <c r="D105" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="B106">
-        <v>-1.25489385857423</v>
+        <v>1.18467159704321</v>
       </c>
       <c r="C106" s="1">
-        <v>1.26299252097478E-5</v>
+        <v>1.00986417018772E-9</v>
       </c>
       <c r="D106" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="B107">
-        <v>-1.0507602362625099</v>
+        <v>1.06668727486172</v>
       </c>
       <c r="C107" s="1">
-        <v>1.48723392379251E-5</v>
+        <v>4.1794059308417204E-9</v>
       </c>
       <c r="D107" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B108">
-        <v>-1.2101380996448301</v>
+        <v>-2.68959209011047</v>
       </c>
       <c r="C108" s="1">
-        <v>1.5330914519137299E-5</v>
+        <v>5.0762370998985899E-9</v>
       </c>
       <c r="D108" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="B109">
-        <v>-1.2228633918943801</v>
+        <v>1.05311805324102</v>
       </c>
       <c r="C109" s="1">
-        <v>1.7010275218762099E-5</v>
+        <v>7.0803621216243996E-8</v>
       </c>
       <c r="D109" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>335</v>
+        <v>117</v>
       </c>
       <c r="B110">
-        <v>-1.1045875933427001</v>
+        <v>-1.43991780768906</v>
       </c>
       <c r="C110" s="1">
-        <v>2.5176316393821201E-5</v>
+        <v>8.1393819046861396E-8</v>
       </c>
       <c r="D110" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B111">
-        <v>-1.15276934306094</v>
+        <v>2.1477962132065498</v>
       </c>
       <c r="C111" s="1">
-        <v>2.6593087548308698E-5</v>
+        <v>2.4225182768345299E-7</v>
       </c>
       <c r="D111" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B112">
-        <v>1.0389203194740799</v>
+        <v>1.4253722856292399</v>
       </c>
       <c r="C112" s="1">
-        <v>3.1517454623170303E-5</v>
+        <v>3.3766898001509702E-7</v>
       </c>
       <c r="D112" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B113">
-        <v>-1.39839094571625</v>
+        <v>-2.5903070292646602</v>
       </c>
       <c r="C113" s="1">
-        <v>3.7287211659073403E-5</v>
+        <v>4.0325413512634601E-7</v>
       </c>
       <c r="D113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="B114">
-        <v>1.21160122861302</v>
+        <v>-1.5020273514795901</v>
       </c>
       <c r="C114" s="1">
-        <v>3.7287211659073403E-5</v>
+        <v>6.0238630003276398E-7</v>
       </c>
       <c r="D114" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B115">
-        <v>1.54421166667812</v>
+        <v>1.3843500904072299</v>
       </c>
       <c r="C115" s="1">
-        <v>3.7287211659073403E-5</v>
+        <v>6.0238630003276398E-7</v>
       </c>
       <c r="D115" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="B116">
-        <v>1.1623068928376299</v>
+        <v>1.1454032696417</v>
       </c>
       <c r="C116" s="1">
-        <v>4.1567434393648897E-5</v>
+        <v>3.49996091561702E-6</v>
       </c>
       <c r="D116" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="B117">
-        <v>1.45150679031615</v>
+        <v>1.17875433672106</v>
       </c>
       <c r="C117" s="1">
-        <v>4.2549767941346597E-5</v>
+        <v>4.5674037259609796E-6</v>
       </c>
       <c r="D117" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="B118">
-        <v>-1.0266401353794901</v>
+        <v>-1.0313690339756301</v>
       </c>
       <c r="C118" s="1">
-        <v>4.8915819384857397E-5</v>
+        <v>7.7311582904055694E-6</v>
       </c>
       <c r="D118" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="B119">
-        <v>-1.2732395099937901</v>
+        <v>-2.76294035714974</v>
       </c>
       <c r="C119" s="1">
-        <v>4.9386727740817197E-5</v>
+        <v>9.5031392797540308E-6</v>
       </c>
       <c r="D119" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="B120">
-        <v>1.22887357982485</v>
+        <v>-1.60331071804846</v>
       </c>
       <c r="C120" s="1">
-        <v>4.9653250602993002E-5</v>
+        <v>6.4760496872844094E-5</v>
       </c>
       <c r="D120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="B121">
-        <v>2.0239476703297599</v>
+        <v>-1.8169428711193401</v>
       </c>
       <c r="C121" s="1">
-        <v>4.9653250602993002E-5</v>
+        <v>7.7298808255322606E-5</v>
       </c>
       <c r="D121" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B122">
-        <v>-1.64559498051763</v>
-      </c>
-      <c r="C122" s="1">
-        <v>5.4338245955111597E-5</v>
+        <v>1.21099434790222</v>
+      </c>
+      <c r="C122">
+        <v>1.1179483306231999E-4</v>
       </c>
       <c r="D122" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="B123">
-        <v>-1.04238769622896</v>
-      </c>
-      <c r="C123" s="1">
-        <v>6.0876986892055298E-5</v>
+        <v>1.64154180305973</v>
+      </c>
+      <c r="C123">
+        <v>1.3813012905025001E-4</v>
       </c>
       <c r="D123" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="B124">
-        <v>1.49055751052887</v>
-      </c>
-      <c r="C124" s="1">
-        <v>6.0876986892055298E-5</v>
+        <v>-1.36372852759519</v>
+      </c>
+      <c r="C124">
+        <v>2.2517895190330599E-4</v>
       </c>
       <c r="D124" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="B125">
-        <v>-1.60331071804846</v>
-      </c>
-      <c r="C125" s="1">
-        <v>6.4760496872844094E-5</v>
+        <v>1.11359612561752</v>
+      </c>
+      <c r="C125">
+        <v>2.7936965919334798E-4</v>
       </c>
       <c r="D125" t="s">
         <v>303</v>
@@ -3904,27 +3904,27 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="B126">
-        <v>1.0468793190071699</v>
-      </c>
-      <c r="C126" s="1">
-        <v>6.8929846309145204E-5</v>
+        <v>1.0140071317857999</v>
+      </c>
+      <c r="C126">
+        <v>3.7681567146569502E-4</v>
       </c>
       <c r="D126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="B127">
-        <v>-1.8169428711193401</v>
-      </c>
-      <c r="C127" s="1">
-        <v>7.7298808255322606E-5</v>
+        <v>1.13723912033621</v>
+      </c>
+      <c r="C127">
+        <v>3.9031403115495801E-4</v>
       </c>
       <c r="D127" t="s">
         <v>303</v>
@@ -3932,83 +3932,83 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="B128">
-        <v>1.5149466628239201</v>
-      </c>
-      <c r="C128" s="1">
-        <v>8.8629051622514594E-5</v>
+        <v>1.9778612562942099</v>
+      </c>
+      <c r="C128">
+        <v>1.52176819984907E-3</v>
       </c>
       <c r="D128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="B129">
-        <v>1.1282167238725</v>
-      </c>
-      <c r="C129" s="1">
-        <v>9.4215765245651194E-5</v>
+        <v>-2.5518430822699298</v>
+      </c>
+      <c r="C129">
+        <v>1.9655061866092499E-3</v>
       </c>
       <c r="D129" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="B130">
-        <v>1.19751776113765</v>
+        <v>1.7559935854524999</v>
       </c>
       <c r="C130">
-        <v>1.00214811062039E-4</v>
+        <v>2.02580400850915E-3</v>
       </c>
       <c r="D130" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>26</v>
+        <v>342</v>
       </c>
       <c r="B131">
-        <v>-1.00627474467253</v>
+        <v>-2.38614766182127</v>
       </c>
       <c r="C131">
-        <v>1.04527872554113E-4</v>
+        <v>2.08230951360389E-3</v>
       </c>
       <c r="D131" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B132">
-        <v>1.5723941762661</v>
+        <v>1.1365313586975201</v>
       </c>
       <c r="C132">
-        <v>1.06315071434976E-4</v>
+        <v>2.2149606676382201E-3</v>
       </c>
       <c r="D132" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B133">
-        <v>1.21099434790222</v>
+        <v>-3.1866224766570999</v>
       </c>
       <c r="C133">
-        <v>1.1179483306231999E-4</v>
+        <v>3.6064742124360298E-3</v>
       </c>
       <c r="D133" t="s">
         <v>303</v>
@@ -4016,83 +4016,83 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="B134">
-        <v>1.5396966053549299</v>
+        <v>1.17272808864967</v>
       </c>
       <c r="C134">
-        <v>1.18990542450813E-4</v>
+        <v>3.63380022875334E-3</v>
       </c>
       <c r="D134" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="B135">
-        <v>2.6370720418819702</v>
+        <v>2.2098344584384599</v>
       </c>
       <c r="C135">
-        <v>1.1911009028625399E-4</v>
+        <v>4.4883095369003204E-3</v>
       </c>
       <c r="D135" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="B136">
-        <v>3.3256092345299999</v>
+        <v>-1.73501086884849</v>
       </c>
       <c r="C136">
-        <v>1.21422835629341E-4</v>
+        <v>4.8636689244573802E-3</v>
       </c>
       <c r="D136" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="B137">
-        <v>-1.07833548621485</v>
+        <v>1.10800990155386</v>
       </c>
       <c r="C137">
-        <v>1.2181248403647899E-4</v>
+        <v>5.0425127132941701E-3</v>
       </c>
       <c r="D137" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="B138">
-        <v>-1.07831633394102</v>
+        <v>1.2001993944520599</v>
       </c>
       <c r="C138">
-        <v>1.2393628700837299E-4</v>
+        <v>6.7792582885804501E-3</v>
       </c>
       <c r="D138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B139">
-        <v>1.1495156853200901</v>
-      </c>
-      <c r="C139">
-        <v>1.2494237851735601E-4</v>
+        <v>1.8658441632071601</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1.6087230246714E-22</v>
       </c>
       <c r="D139" t="s">
         <v>301</v>
@@ -4100,97 +4100,97 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="B140">
-        <v>1.64154180305973</v>
-      </c>
-      <c r="C140">
-        <v>1.3813012905025001E-4</v>
+        <v>1.33958843065547</v>
+      </c>
+      <c r="C140" s="1">
+        <v>4.3826020369934799E-21</v>
       </c>
       <c r="D140" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="B141">
-        <v>1.06841836548959</v>
-      </c>
-      <c r="C141">
-        <v>1.4547148740870201E-4</v>
+        <v>1.36860035748399</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1.057086874744E-19</v>
       </c>
       <c r="D141" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>62</v>
+        <v>325</v>
       </c>
       <c r="B142">
-        <v>-2.10709122400662</v>
-      </c>
-      <c r="C142">
-        <v>1.49577059508009E-4</v>
+        <v>-2.8511931869606202</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1.8127896093143101E-18</v>
       </c>
       <c r="D142" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B143">
-        <v>3.4832539697208902</v>
-      </c>
-      <c r="C143">
-        <v>1.5415513179761799E-4</v>
+        <v>1.09437779499278</v>
+      </c>
+      <c r="C143" s="1">
+        <v>5.3335280056224697E-12</v>
       </c>
       <c r="D143" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="B144">
-        <v>1.66112573891751</v>
-      </c>
-      <c r="C144">
-        <v>1.54202777693294E-4</v>
+        <v>4.8484158962887198</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1.02554199979224E-11</v>
       </c>
       <c r="D144" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B145">
-        <v>1.0198983136995801</v>
-      </c>
-      <c r="C145">
-        <v>1.6382418456945699E-4</v>
+        <v>-7.2594228038347097</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1.9673811986510001E-11</v>
       </c>
       <c r="D145" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="B146">
-        <v>-2.6539496229025201</v>
-      </c>
-      <c r="C146">
-        <v>1.70990282986033E-4</v>
+        <v>1.6348192120052401</v>
+      </c>
+      <c r="C146" s="1">
+        <v>6.6866374269948698E-11</v>
       </c>
       <c r="D146" t="s">
         <v>301</v>
@@ -4198,41 +4198,41 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="B147">
-        <v>2.2790437183115699</v>
-      </c>
-      <c r="C147">
-        <v>1.95247752634912E-4</v>
+        <v>-1.0333729177318201</v>
+      </c>
+      <c r="C147" s="1">
+        <v>8.0019183686566706E-11</v>
       </c>
       <c r="D147" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="B148">
-        <v>-1.4539203278283599</v>
-      </c>
-      <c r="C148">
-        <v>2.0870498216927499E-4</v>
+        <v>1.1899449861252001</v>
+      </c>
+      <c r="C148" s="1">
+        <v>9.5346022821921505E-11</v>
       </c>
       <c r="D148" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="B149">
-        <v>-1.08265752121304</v>
-      </c>
-      <c r="C149">
-        <v>2.22157097563448E-4</v>
+        <v>1.2153686565512301</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1.11656313724488E-10</v>
       </c>
       <c r="D149" t="s">
         <v>301</v>
@@ -4240,41 +4240,41 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="B150">
-        <v>1.5475423847104499</v>
-      </c>
-      <c r="C150">
-        <v>2.2216776442646701E-4</v>
+        <v>1.13550870625939</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2.2768931834284899E-10</v>
       </c>
       <c r="D150" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="B151">
-        <v>-1.36372852759519</v>
-      </c>
-      <c r="C151">
-        <v>2.2517895190330599E-4</v>
+        <v>-1.0048808388722701</v>
+      </c>
+      <c r="C151" s="1">
+        <v>3.3808639364170402E-10</v>
       </c>
       <c r="D151" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="B152">
-        <v>-2.95601115088584</v>
-      </c>
-      <c r="C152">
-        <v>2.5231732558662201E-4</v>
+        <v>-1.5139110426593601</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3.4722138556907998E-10</v>
       </c>
       <c r="D152" t="s">
         <v>301</v>
@@ -4282,41 +4282,41 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="B153">
-        <v>1.11359612561752</v>
-      </c>
-      <c r="C153">
-        <v>2.7936965919334798E-4</v>
+        <v>-1.3365340886249</v>
+      </c>
+      <c r="C153" s="1">
+        <v>5.3494611239306995E-10</v>
       </c>
       <c r="D153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B154">
-        <v>-1.2190507434120299</v>
-      </c>
-      <c r="C154">
-        <v>3.1921545651152999E-4</v>
+        <v>1.2038439839653201</v>
+      </c>
+      <c r="C154" s="1">
+        <v>6.5764194710501304E-10</v>
       </c>
       <c r="D154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>338</v>
+        <v>110</v>
       </c>
       <c r="B155">
-        <v>1.0882776962404801</v>
-      </c>
-      <c r="C155">
-        <v>3.2154850477695001E-4</v>
+        <v>-2.8951685124467201</v>
+      </c>
+      <c r="C155" s="1">
+        <v>7.0245498204460502E-10</v>
       </c>
       <c r="D155" t="s">
         <v>301</v>
@@ -4324,55 +4324,55 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="B156">
-        <v>1.0140071317857999</v>
-      </c>
-      <c r="C156">
-        <v>3.7681567146569502E-4</v>
+        <v>1.5823202296235399</v>
+      </c>
+      <c r="C156" s="1">
+        <v>8.9396652749406896E-10</v>
       </c>
       <c r="D156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="B157">
-        <v>1.13723912033621</v>
-      </c>
-      <c r="C157">
-        <v>3.9031403115495801E-4</v>
+        <v>-1.48885627877131</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2.54384763028412E-9</v>
       </c>
       <c r="D157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="B158">
-        <v>1.66919960162299</v>
-      </c>
-      <c r="C158">
-        <v>4.0103418630320998E-4</v>
+        <v>1.07019507143133</v>
+      </c>
+      <c r="C158" s="1">
+        <v>4.8842080911643804E-9</v>
       </c>
       <c r="D158" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
       <c r="B159">
-        <v>-1.0320203738835501</v>
-      </c>
-      <c r="C159">
-        <v>4.1899251031912201E-4</v>
+        <v>-1.1371739998447301</v>
+      </c>
+      <c r="C159" s="1">
+        <v>7.2683177193151401E-9</v>
       </c>
       <c r="D159" t="s">
         <v>301</v>
@@ -4380,83 +4380,83 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="B160">
-        <v>-1.3562165172542899</v>
-      </c>
-      <c r="C160">
-        <v>4.2390719774676802E-4</v>
+        <v>-3.1331961123886098</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1.9287825075677299E-8</v>
       </c>
       <c r="D160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B161">
-        <v>1.78439225827228</v>
-      </c>
-      <c r="C161">
-        <v>4.6251327262112902E-4</v>
+        <v>1.3378791988980201</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2.7594138703284299E-8</v>
       </c>
       <c r="D161" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>339</v>
+        <v>3</v>
       </c>
       <c r="B162">
-        <v>1.01692586481013</v>
-      </c>
-      <c r="C162">
-        <v>4.6781042673750903E-4</v>
+        <v>-1.6706655908465</v>
+      </c>
+      <c r="C162" s="1">
+        <v>3.6770431662956799E-8</v>
       </c>
       <c r="D162" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>177</v>
+        <v>329</v>
       </c>
       <c r="B163">
-        <v>-1.16296319186424</v>
-      </c>
-      <c r="C163">
-        <v>5.0686152216145996E-4</v>
+        <v>1.1236672494364699</v>
+      </c>
+      <c r="C163" s="1">
+        <v>7.5272931632964405E-8</v>
       </c>
       <c r="D163" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="B164">
-        <v>-1.4517333150135401</v>
-      </c>
-      <c r="C164">
-        <v>5.8774747372799E-4</v>
+        <v>1.1233575954217601</v>
+      </c>
+      <c r="C164" s="1">
+        <v>9.63023058120745E-8</v>
       </c>
       <c r="D164" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>340</v>
+        <v>49</v>
       </c>
       <c r="B165">
-        <v>2.6676339969056602</v>
-      </c>
-      <c r="C165">
-        <v>5.8774747372799E-4</v>
+        <v>2.3151224123765899</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1.07973126223354E-7</v>
       </c>
       <c r="D165" t="s">
         <v>301</v>
@@ -4464,13 +4464,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B166">
-        <v>3.55146913326428</v>
-      </c>
-      <c r="C166">
-        <v>6.1548123115313805E-4</v>
+        <v>1.7464377627647301</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1.2243864446891401E-7</v>
       </c>
       <c r="D166" t="s">
         <v>301</v>
@@ -4478,13 +4478,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="B167">
-        <v>-1.09366544209535</v>
-      </c>
-      <c r="C167">
-        <v>6.5734686881686096E-4</v>
+        <v>1.3467916840954299</v>
+      </c>
+      <c r="C167" s="1">
+        <v>3.8302419817884098E-7</v>
       </c>
       <c r="D167" t="s">
         <v>301</v>
@@ -4492,13 +4492,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="B168">
-        <v>1.45434454284293</v>
-      </c>
-      <c r="C168">
-        <v>6.8545016389330398E-4</v>
+        <v>-1.1145923445039101</v>
+      </c>
+      <c r="C168" s="1">
+        <v>6.0238630003276398E-7</v>
       </c>
       <c r="D168" t="s">
         <v>301</v>
@@ -4506,55 +4506,55 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B169">
-        <v>1.08777085916986</v>
-      </c>
-      <c r="C169">
-        <v>8.3357088956746499E-4</v>
+        <v>1.45749559254772</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1.0572816783592E-6</v>
       </c>
       <c r="D169" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B170">
-        <v>-1.28455974135541</v>
-      </c>
-      <c r="C170">
-        <v>9.1137282370335197E-4</v>
+        <v>1.9913890198211599</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1.3398747184582E-6</v>
       </c>
       <c r="D170" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="B171">
-        <v>-1.02557247650206</v>
-      </c>
-      <c r="C171">
-        <v>9.4709869738855603E-4</v>
+        <v>1.3057160944911099</v>
+      </c>
+      <c r="C171" s="1">
+        <v>3.1533659790655401E-6</v>
       </c>
       <c r="D171" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>17</v>
       </c>
       <c r="B172">
-        <v>2.2777210422426699</v>
-      </c>
-      <c r="C172">
-        <v>1.0134126545662599E-3</v>
+        <v>-1.7776538766622201</v>
+      </c>
+      <c r="C172" s="1">
+        <v>4.1746807832384299E-6</v>
       </c>
       <c r="D172" t="s">
         <v>301</v>
@@ -4562,13 +4562,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B173">
-        <v>-1.33576405216984</v>
-      </c>
-      <c r="C173">
-        <v>1.1223220582843199E-3</v>
+        <v>-1.06792482979273</v>
+      </c>
+      <c r="C173" s="1">
+        <v>4.1746807832384299E-6</v>
       </c>
       <c r="D173" t="s">
         <v>301</v>
@@ -4576,55 +4576,55 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="B174">
-        <v>-1.1756338298564999</v>
-      </c>
-      <c r="C174">
-        <v>1.4183705872562601E-3</v>
+        <v>1.80232921017434</v>
+      </c>
+      <c r="C174" s="1">
+        <v>4.1746807832384299E-6</v>
       </c>
       <c r="D174" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="B175">
-        <v>1.9778612562942099</v>
-      </c>
-      <c r="C175">
-        <v>1.52176819984907E-3</v>
+        <v>1.60131625078446</v>
+      </c>
+      <c r="C175" s="1">
+        <v>9.0491930012687102E-6</v>
       </c>
       <c r="D175" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="B176">
-        <v>-2.0927028139918402</v>
-      </c>
-      <c r="C176">
-        <v>1.59848423426843E-3</v>
+        <v>-4.2392374375983097</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1.1465533496115701E-5</v>
       </c>
       <c r="D176" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B177">
-        <v>1.0092384018666201</v>
-      </c>
-      <c r="C177">
-        <v>1.8274731310707901E-3</v>
+        <v>1.2946668553382701</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1.15796326545259E-5</v>
       </c>
       <c r="D177" t="s">
         <v>301</v>
@@ -4632,41 +4632,41 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="B178">
-        <v>-1.1625367444333501</v>
-      </c>
-      <c r="C178">
-        <v>1.9000392603005299E-3</v>
+        <v>-1.2228633918943801</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1.7010275218762099E-5</v>
       </c>
       <c r="D178" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="B179">
-        <v>-2.5518430822699298</v>
-      </c>
-      <c r="C179">
-        <v>1.9655061866092499E-3</v>
+        <v>-1.15276934306094</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2.6593087548308698E-5</v>
       </c>
       <c r="D179" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B180">
-        <v>1.1793179529871001</v>
-      </c>
-      <c r="C180">
-        <v>2.0124816573320399E-3</v>
+        <v>1.0389203194740799</v>
+      </c>
+      <c r="C180" s="1">
+        <v>3.1517454623170303E-5</v>
       </c>
       <c r="D180" t="s">
         <v>301</v>
@@ -4674,69 +4674,69 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="B181">
-        <v>1.7559935854524999</v>
-      </c>
-      <c r="C181">
-        <v>2.02580400850915E-3</v>
+        <v>1.21160122861302</v>
+      </c>
+      <c r="C181" s="1">
+        <v>3.7287211659073403E-5</v>
       </c>
       <c r="D181" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B182">
-        <v>1.6812274841819399</v>
-      </c>
-      <c r="C182">
-        <v>2.0559841630137499E-3</v>
+        <v>1.45150679031615</v>
+      </c>
+      <c r="C182" s="1">
+        <v>4.2549767941346597E-5</v>
       </c>
       <c r="D182" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B183">
-        <v>-2.38614766182127</v>
-      </c>
-      <c r="C183">
-        <v>2.08230951360389E-3</v>
+        <v>2.0239476703297599</v>
+      </c>
+      <c r="C183" s="1">
+        <v>4.9653250602993002E-5</v>
       </c>
       <c r="D183" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="B184">
-        <v>1.1365313586975201</v>
-      </c>
-      <c r="C184">
-        <v>2.2149606676382201E-3</v>
+        <v>1.49055751052887</v>
+      </c>
+      <c r="C184" s="1">
+        <v>6.0876986892055298E-5</v>
       </c>
       <c r="D184" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="B185">
-        <v>1.60735013677111</v>
+        <v>-1.00627474467253</v>
       </c>
       <c r="C185">
-        <v>2.6787283294605201E-3</v>
+        <v>1.04527872554113E-4</v>
       </c>
       <c r="D185" t="s">
         <v>301</v>
@@ -4744,13 +4744,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="B186">
-        <v>-1.08312703648289</v>
+        <v>1.5723941762661</v>
       </c>
       <c r="C186">
-        <v>2.7434119175433298E-3</v>
+        <v>1.06315071434976E-4</v>
       </c>
       <c r="D186" t="s">
         <v>301</v>
@@ -4758,69 +4758,69 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="B187">
-        <v>1.4862649716456</v>
+        <v>1.5396966053549299</v>
       </c>
       <c r="C187">
-        <v>3.36924209957033E-3</v>
+        <v>1.18990542450813E-4</v>
       </c>
       <c r="D187" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="B188">
-        <v>-3.1866224766570999</v>
+        <v>-1.07831633394102</v>
       </c>
       <c r="C188">
-        <v>3.6064742124360298E-3</v>
+        <v>1.2393628700837299E-4</v>
       </c>
       <c r="D188" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>344</v>
+        <v>181</v>
       </c>
       <c r="B189">
-        <v>1.17272808864967</v>
+        <v>1.1495156853200901</v>
       </c>
       <c r="C189">
-        <v>3.63380022875334E-3</v>
+        <v>1.2494237851735601E-4</v>
       </c>
       <c r="D189" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="B190">
-        <v>1.2133087169093</v>
+        <v>-2.6539496229025201</v>
       </c>
       <c r="C190">
-        <v>3.6342818119166399E-3</v>
+        <v>1.70990282986033E-4</v>
       </c>
       <c r="D190" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>345</v>
+        <v>178</v>
       </c>
       <c r="B191">
-        <v>-1.0922736086682101</v>
+        <v>-1.08265752121304</v>
       </c>
       <c r="C191">
-        <v>3.8139618597922598E-3</v>
+        <v>2.22157097563448E-4</v>
       </c>
       <c r="D191" t="s">
         <v>301</v>
@@ -4828,13 +4828,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>204</v>
+        <v>337</v>
       </c>
       <c r="B192">
-        <v>-1.04140031390457</v>
+        <v>-2.95601115088584</v>
       </c>
       <c r="C192">
-        <v>3.9819431422701097E-3</v>
+        <v>2.5231732558662201E-4</v>
       </c>
       <c r="D192" t="s">
         <v>301</v>
@@ -4842,83 +4842,83 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>121</v>
+        <v>338</v>
       </c>
       <c r="B193">
-        <v>-1.3527244785560699</v>
+        <v>1.0882776962404801</v>
       </c>
       <c r="C193">
-        <v>4.03303482839558E-3</v>
+        <v>3.2154850477695001E-4</v>
       </c>
       <c r="D193" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="B194">
-        <v>1.52297044252572</v>
+        <v>-1.0320203738835501</v>
       </c>
       <c r="C194">
-        <v>4.1637857361514104E-3</v>
+        <v>4.1899251031912201E-4</v>
       </c>
       <c r="D194" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>148</v>
+        <v>340</v>
       </c>
       <c r="B195">
-        <v>2.2098344584384599</v>
+        <v>2.6676339969056602</v>
       </c>
       <c r="C195">
-        <v>4.4883095369003204E-3</v>
+        <v>5.8774747372799E-4</v>
       </c>
       <c r="D195" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B196">
-        <v>-1.73501086884849</v>
+        <v>3.55146913326428</v>
       </c>
       <c r="C196">
-        <v>4.8636689244573802E-3</v>
+        <v>6.1548123115313805E-4</v>
       </c>
       <c r="D196" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B197">
-        <v>1.10800990155386</v>
+        <v>-1.09366544209535</v>
       </c>
       <c r="C197">
-        <v>5.0425127132941701E-3</v>
+        <v>6.5734686881686096E-4</v>
       </c>
       <c r="D197" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B198">
-        <v>1.30814471668053</v>
+        <v>1.45434454284293</v>
       </c>
       <c r="C198">
-        <v>5.2623503535502297E-3</v>
+        <v>6.8545016389330398E-4</v>
       </c>
       <c r="D198" t="s">
         <v>301</v>
@@ -4926,27 +4926,27 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>141</v>
+        <v>341</v>
       </c>
       <c r="B199">
-        <v>1.38199290504332</v>
+        <v>2.2777210422426699</v>
       </c>
       <c r="C199">
-        <v>5.5378404432670104E-3</v>
+        <v>1.0134126545662599E-3</v>
       </c>
       <c r="D199" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B200">
-        <v>1.8954091523555501</v>
+        <v>-1.33576405216984</v>
       </c>
       <c r="C200">
-        <v>5.54451736091305E-3</v>
+        <v>1.1223220582843199E-3</v>
       </c>
       <c r="D200" t="s">
         <v>301</v>
@@ -4954,69 +4954,69 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="B201">
-        <v>-1.08443463467864</v>
+        <v>1.0092384018666201</v>
       </c>
       <c r="C201">
-        <v>5.9651848327189599E-3</v>
+        <v>1.8274731310707901E-3</v>
       </c>
       <c r="D201" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="B202">
-        <v>1.2001993944520599</v>
+        <v>1.1793179529871001</v>
       </c>
       <c r="C202">
-        <v>6.7792582885804501E-3</v>
+        <v>2.0124816573320399E-3</v>
       </c>
       <c r="D202" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B203">
-        <v>2.9717575510658301</v>
+        <v>1.60735013677111</v>
       </c>
       <c r="C203">
-        <v>6.7794869156886303E-3</v>
+        <v>2.6787283294605201E-3</v>
       </c>
       <c r="D203" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="B204">
-        <v>-1.76674642463557</v>
+        <v>-1.08312703648289</v>
       </c>
       <c r="C204">
-        <v>6.84293365840741E-3</v>
+        <v>2.7434119175433298E-3</v>
       </c>
       <c r="D204" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="B205">
-        <v>1.3066577408059801</v>
+        <v>-1.0922736086682101</v>
       </c>
       <c r="C205">
-        <v>7.0848808064739501E-3</v>
+        <v>3.8139618597922598E-3</v>
       </c>
       <c r="D205" t="s">
         <v>301</v>
@@ -5024,27 +5024,27 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
       <c r="B206">
-        <v>1.0016598415673801</v>
+        <v>-1.04140031390457</v>
       </c>
       <c r="C206">
-        <v>7.2221290825454903E-3</v>
+        <v>3.9819431422701097E-3</v>
       </c>
       <c r="D206" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>348</v>
+        <v>68</v>
       </c>
       <c r="B207">
-        <v>-1.16756771558298</v>
+        <v>1.30814471668053</v>
       </c>
       <c r="C207">
-        <v>7.2574366961451397E-3</v>
+        <v>5.2623503535502297E-3</v>
       </c>
       <c r="D207" t="s">
         <v>301</v>
@@ -5052,27 +5052,27 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="B208">
-        <v>-1.9195018149031799</v>
+        <v>1.8954091523555501</v>
       </c>
       <c r="C208">
-        <v>7.6839556454405301E-3</v>
+        <v>5.54451736091305E-3</v>
       </c>
       <c r="D208" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="B209">
-        <v>-1.5369604695970001</v>
+        <v>1.3066577408059801</v>
       </c>
       <c r="C209">
-        <v>8.9768936284274296E-3</v>
+        <v>7.0848808064739501E-3</v>
       </c>
       <c r="D209" t="s">
         <v>301</v>
@@ -5080,13 +5080,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B210">
-        <v>1.0003023830381299</v>
+        <v>-1.16756771558298</v>
       </c>
       <c r="C210">
-        <v>9.1932079009776398E-3</v>
+        <v>7.2574366961451397E-3</v>
       </c>
       <c r="D210" t="s">
         <v>301</v>
@@ -5094,27 +5094,27 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B211">
-        <v>1.30529580871853</v>
+        <v>-1.5369604695970001</v>
       </c>
       <c r="C211">
-        <v>9.3062102412774707E-3</v>
+        <v>8.9768936284274296E-3</v>
       </c>
       <c r="D211" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>180</v>
+        <v>349</v>
       </c>
       <c r="B212">
-        <v>-1.43363938487247</v>
+        <v>1.0003023830381299</v>
       </c>
       <c r="C212">
-        <v>9.4007990746842497E-3</v>
+        <v>9.1932079009776398E-3</v>
       </c>
       <c r="D212" t="s">
         <v>301</v>
@@ -5122,19 +5122,22 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="B213">
-        <v>1.81600559496758</v>
+        <v>-1.43363938487247</v>
       </c>
       <c r="C213">
-        <v>9.7798235851292506E-3</v>
+        <v>9.4007990746842497E-3</v>
       </c>
       <c r="D213" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D213">
+    <sortCondition ref="D2:D213"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5144,7 +5147,7 @@
   <dimension ref="A1:N4800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H24"/>
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5165,125 +5168,125 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B2">
-        <v>-4.7714219260587196</v>
+        <v>-2.4194358371253402</v>
       </c>
       <c r="C2" s="1">
-        <v>1.12271885129177E-9</v>
+        <v>9.9254782590604709E-10</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="B3">
-        <v>-3.0265327528694099</v>
+        <v>2.0397186523334798</v>
       </c>
       <c r="C3" s="1">
-        <v>1.30058484316617E-5</v>
+        <v>5.8172969463109796E-6</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>362</v>
       </c>
       <c r="B4">
-        <v>-2.7541686127627298</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.7648939220952799E-6</v>
+        <v>-1.8993957338249601</v>
+      </c>
+      <c r="C4">
+        <v>3.25174792757167E-4</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="B5">
-        <v>-2.4194358371253402</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9.9254782590604709E-10</v>
+        <v>-1.47474403090631</v>
+      </c>
+      <c r="C5">
+        <v>6.80524645251102E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B6">
-        <v>-2.4121128298555599</v>
+        <v>-1.29191287493048</v>
       </c>
       <c r="C6">
-        <v>5.8784766880194705E-4</v>
+        <v>6.3141249088698604E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>287</v>
       </c>
       <c r="B7">
-        <v>-2.31523417817731</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.64485634962457E-5</v>
+        <v>1.2494242772064701</v>
+      </c>
+      <c r="C7">
+        <v>8.2963422945199292E-3</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="B8">
-        <v>-2.1563619927014099</v>
+        <v>1.4032076438662899</v>
       </c>
       <c r="C8" s="1">
-        <v>1.1023966541947201E-5</v>
+        <v>1.90871124794465E-6</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B9">
-        <v>-1.9984749195889699</v>
+        <v>1.52139260199271</v>
       </c>
       <c r="C9">
-        <v>3.9088255656656102E-3</v>
+        <v>6.4533996387717901E-4</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>142</v>
       </c>
       <c r="B10">
-        <v>-1.8993957338249601</v>
-      </c>
-      <c r="C10">
-        <v>3.25174792757167E-4</v>
+        <v>1.52913509574058</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.9564243662550899E-16</v>
       </c>
       <c r="D10" t="s">
         <v>304</v>
@@ -5291,27 +5294,27 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>187</v>
       </c>
       <c r="B11">
-        <v>-1.7395200918406</v>
+        <v>-2.7541686127627298</v>
       </c>
       <c r="C11" s="1">
-        <v>2.1960792641290198E-6</v>
+        <v>2.7648939220952799E-6</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>296</v>
       </c>
       <c r="B12">
-        <v>-1.5914688494503599</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8.2723663426624396E-7</v>
+        <v>-1.9984749195889699</v>
+      </c>
+      <c r="C12">
+        <v>3.9088255656656102E-3</v>
       </c>
       <c r="D12" t="s">
         <v>302</v>
@@ -5334,16 +5337,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="B13">
-        <v>-1.49857374012905</v>
-      </c>
-      <c r="C13">
-        <v>6.2732251347518402E-3</v>
+        <v>-1.5914688494503599</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.2723663426624396E-7</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G13" t="s">
         <v>312</v>
@@ -5366,16 +5369,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>-1.47474403090631</v>
-      </c>
-      <c r="C14">
-        <v>6.80524645251102E-3</v>
+        <v>1.04099178186118</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.9681750097894901E-7</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G14" t="s">
         <v>318</v>
@@ -5401,16 +5404,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="B15">
-        <v>-1.4288310310266701</v>
-      </c>
-      <c r="C15">
-        <v>3.6243665167063001E-3</v>
+        <v>1.0661881411001399</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.23488283209266E-10</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G15" t="s">
         <v>320</v>
@@ -5436,16 +5439,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B16">
-        <v>-1.38353479785046</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.06297894144558E-9</v>
+        <v>1.0757923822194499</v>
+      </c>
+      <c r="C16">
+        <v>2.14679746773121E-4</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G16" t="s">
         <v>321</v>
@@ -5471,16 +5474,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="B17">
-        <v>-1.29191287493048</v>
+        <v>1.0838186779216199</v>
       </c>
       <c r="C17">
-        <v>6.3141249088698604E-3</v>
+        <v>1.86263384691499E-3</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G17" t="s">
         <v>322</v>
@@ -5506,16 +5509,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="B18">
-        <v>-1.2661097317454</v>
-      </c>
-      <c r="C18">
-        <v>5.0299860638559797E-3</v>
+        <v>1.9147282139314801</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.591302323316E-6</v>
       </c>
       <c r="D18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G18" t="s">
         <v>323</v>
@@ -5541,72 +5544,72 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B19">
-        <v>-1.08973698309014</v>
-      </c>
-      <c r="C19">
-        <v>6.3141249088698604E-3</v>
+        <v>2.6162844662375901</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.2269533956253297E-11</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="B20">
-        <v>-1.0140331166958301</v>
+        <v>-3.0265327528694099</v>
       </c>
       <c r="C20" s="1">
-        <v>3.7838668551485601E-5</v>
+        <v>1.30058484316617E-5</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>98</v>
       </c>
       <c r="B21">
-        <v>1.02623722298116</v>
+        <v>-2.31523417817731</v>
       </c>
       <c r="C21" s="1">
-        <v>2.5883622717322499E-7</v>
+        <v>1.64485634962457E-5</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>358</v>
       </c>
       <c r="B22">
-        <v>1.04099178186118</v>
+        <v>-1.7395200918406</v>
       </c>
       <c r="C22" s="1">
-        <v>1.9681750097894901E-7</v>
+        <v>2.1960792641290198E-6</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="B23">
-        <v>1.05556789424106</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6.2692434572271196E-5</v>
+        <v>-1.49857374012905</v>
+      </c>
+      <c r="C23">
+        <v>6.2732251347518402E-3</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H23" t="s">
         <v>378</v>
@@ -5614,16 +5617,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="B24">
-        <v>1.0651780119030201</v>
+        <v>-1.4288310310266701</v>
       </c>
       <c r="C24">
-        <v>9.1868402148879904E-4</v>
+        <v>3.6243665167063001E-3</v>
       </c>
       <c r="D24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H24">
         <v>10.892857142857142</v>
@@ -5631,83 +5634,83 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="B25">
-        <v>1.0661881411001399</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.23488283209266E-10</v>
+        <v>-1.2661097317454</v>
+      </c>
+      <c r="C25">
+        <v>5.0299860638559797E-3</v>
       </c>
       <c r="D25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="B26">
-        <v>1.0757923822194499</v>
-      </c>
-      <c r="C26">
-        <v>2.14679746773121E-4</v>
+        <v>1.2144585329462001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.6029767057160997E-5</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B27">
-        <v>1.0838186779216199</v>
-      </c>
-      <c r="C27">
-        <v>1.86263384691499E-3</v>
+        <v>1.8060789855386301</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.3988152148911201E-5</v>
       </c>
       <c r="D27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>284</v>
       </c>
       <c r="B28">
-        <v>1.08768597487059</v>
+        <v>3.1404070643022202</v>
       </c>
       <c r="C28">
-        <v>2.0312718678652101E-3</v>
+        <v>3.1506980233663301E-3</v>
       </c>
       <c r="D28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="B29">
-        <v>1.2144585329462001</v>
+        <v>-4.7714219260587196</v>
       </c>
       <c r="C29" s="1">
-        <v>3.6029767057160997E-5</v>
+        <v>1.12271885129177E-9</v>
       </c>
       <c r="D29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="B30">
-        <v>1.2196116245380899</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2.9177905448073101E-8</v>
+        <v>-2.4121128298555599</v>
+      </c>
+      <c r="C30">
+        <v>5.8784766880194705E-4</v>
       </c>
       <c r="D30" t="s">
         <v>301</v>
@@ -5715,13 +5718,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>1.2290110517077399</v>
-      </c>
-      <c r="C31">
-        <v>7.0856962378388602E-4</v>
+        <v>-2.1563619927014099</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.1023966541947201E-5</v>
       </c>
       <c r="D31" t="s">
         <v>301</v>
@@ -5729,13 +5732,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="B32">
-        <v>1.2482395648757201</v>
+        <v>-1.38353479785046</v>
       </c>
       <c r="C32" s="1">
-        <v>1.3352729865612301E-6</v>
+        <v>1.06297894144558E-9</v>
       </c>
       <c r="D32" t="s">
         <v>301</v>
@@ -5743,27 +5746,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B33">
-        <v>1.2494242772064701</v>
+        <v>-1.08973698309014</v>
       </c>
       <c r="C33">
-        <v>8.2963422945199292E-3</v>
+        <v>6.3141249088698604E-3</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>1.34233229993</v>
-      </c>
-      <c r="C34">
-        <v>1.9670361193864002E-3</v>
+        <v>-1.0140331166958301</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.7838668551485601E-5</v>
       </c>
       <c r="D34" t="s">
         <v>301</v>
@@ -5771,13 +5774,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B35">
-        <v>1.38267569570414</v>
+        <v>1.02623722298116</v>
       </c>
       <c r="C35" s="1">
-        <v>3.3351124800516103E-7</v>
+        <v>2.5883622717322499E-7</v>
       </c>
       <c r="D35" t="s">
         <v>301</v>
@@ -5785,27 +5788,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>1.4032076438662899</v>
+        <v>1.05556789424106</v>
       </c>
       <c r="C36" s="1">
-        <v>1.90871124794465E-6</v>
+        <v>6.2692434572271196E-5</v>
       </c>
       <c r="D36" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="B37">
-        <v>1.41593267597579</v>
+        <v>1.0651780119030201</v>
       </c>
       <c r="C37">
-        <v>3.9816961451387802E-3</v>
+        <v>9.1868402148879904E-4</v>
       </c>
       <c r="D37" t="s">
         <v>301</v>
@@ -5813,13 +5816,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>1.4392575137278101</v>
+        <v>1.08768597487059</v>
       </c>
       <c r="C38">
-        <v>1.9670361193864002E-3</v>
+        <v>2.0312718678652101E-3</v>
       </c>
       <c r="D38" t="s">
         <v>301</v>
@@ -5827,13 +5830,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
       <c r="B39">
-        <v>1.4503386385098</v>
+        <v>1.2196116245380899</v>
       </c>
       <c r="C39" s="1">
-        <v>1.4464958090844801E-6</v>
+        <v>2.9177905448073101E-8</v>
       </c>
       <c r="D39" t="s">
         <v>301</v>
@@ -5841,13 +5844,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="B40">
-        <v>1.4503794491511</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1.67178859517139E-19</v>
+        <v>1.2290110517077399</v>
+      </c>
+      <c r="C40">
+        <v>7.0856962378388602E-4</v>
       </c>
       <c r="D40" t="s">
         <v>301</v>
@@ -5855,13 +5858,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>1.4928254585577201</v>
+        <v>1.2482395648757201</v>
       </c>
       <c r="C41" s="1">
-        <v>1.98201118456787E-7</v>
+        <v>1.3352729865612301E-6</v>
       </c>
       <c r="D41" t="s">
         <v>301</v>
@@ -5869,13 +5872,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="B42">
-        <v>1.5175635789694899</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.48261417067859E-16</v>
+        <v>1.34233229993</v>
+      </c>
+      <c r="C42">
+        <v>1.9670361193864002E-3</v>
       </c>
       <c r="D42" t="s">
         <v>301</v>
@@ -5883,27 +5886,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
       <c r="B43">
-        <v>1.52139260199271</v>
-      </c>
-      <c r="C43">
-        <v>6.4533996387717901E-4</v>
+        <v>1.38267569570414</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3.3351124800516103E-7</v>
       </c>
       <c r="D43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="B44">
-        <v>1.52385285814211</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1.7871675236969199E-5</v>
+        <v>1.41593267597579</v>
+      </c>
+      <c r="C44">
+        <v>3.9816961451387802E-3</v>
       </c>
       <c r="D44" t="s">
         <v>301</v>
@@ -5911,27 +5914,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>1.52913509574058</v>
-      </c>
-      <c r="C45" s="1">
-        <v>4.9564243662550899E-16</v>
+        <v>1.4392575137278101</v>
+      </c>
+      <c r="C45">
+        <v>1.9670361193864002E-3</v>
       </c>
       <c r="D45" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="B46">
-        <v>1.5554439034285299</v>
+        <v>1.4503386385098</v>
       </c>
       <c r="C46" s="1">
-        <v>9.5109359864129394E-8</v>
+        <v>1.4464958090844801E-6</v>
       </c>
       <c r="D46" t="s">
         <v>301</v>
@@ -5939,13 +5942,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>375</v>
+        <v>120</v>
       </c>
       <c r="B47">
-        <v>1.5615225154938199</v>
+        <v>1.4503794491511</v>
       </c>
       <c r="C47" s="1">
-        <v>3.8664480869504601E-8</v>
+        <v>1.67178859517139E-19</v>
       </c>
       <c r="D47" t="s">
         <v>301</v>
@@ -5953,13 +5956,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B48">
-        <v>1.68927422547046</v>
-      </c>
-      <c r="C48">
-        <v>1.2672596679864901E-3</v>
+        <v>1.4928254585577201</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.98201118456787E-7</v>
       </c>
       <c r="D48" t="s">
         <v>301</v>
@@ -5967,27 +5970,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49">
-        <v>1.8060789855386301</v>
+        <v>1.5175635789694899</v>
       </c>
       <c r="C49" s="1">
-        <v>1.3988152148911201E-5</v>
+        <v>1.48261417067859E-16</v>
       </c>
       <c r="D49" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="B50">
-        <v>1.8725644792021201</v>
+        <v>1.52385285814211</v>
       </c>
       <c r="C50" s="1">
-        <v>1.28621391525887E-8</v>
+        <v>1.7871675236969199E-5</v>
       </c>
       <c r="D50" t="s">
         <v>301</v>
@@ -5995,41 +5998,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="B51">
-        <v>1.9147282139314801</v>
+        <v>1.5554439034285299</v>
       </c>
       <c r="C51" s="1">
-        <v>1.591302323316E-6</v>
+        <v>9.5109359864129394E-8</v>
       </c>
       <c r="D51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="B52">
-        <v>2.0397186523334798</v>
+        <v>1.5615225154938199</v>
       </c>
       <c r="C52" s="1">
-        <v>5.8172969463109796E-6</v>
+        <v>3.8664480869504601E-8</v>
       </c>
       <c r="D52" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="B53">
-        <v>2.3276296021339</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.8125146304043099E-6</v>
+        <v>1.68927422547046</v>
+      </c>
+      <c r="C53">
+        <v>1.2672596679864901E-3</v>
       </c>
       <c r="D53" t="s">
         <v>301</v>
@@ -6037,13 +6040,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>2.36203796533791</v>
+        <v>1.8725644792021201</v>
       </c>
       <c r="C54" s="1">
-        <v>1.4464958090844801E-6</v>
+        <v>1.28621391525887E-8</v>
       </c>
       <c r="D54" t="s">
         <v>301</v>
@@ -6051,13 +6054,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="B55">
-        <v>2.43390602858867</v>
+        <v>2.3276296021339</v>
       </c>
       <c r="C55" s="1">
-        <v>2.9675515435838402E-12</v>
+        <v>1.8125146304043099E-6</v>
       </c>
       <c r="D55" t="s">
         <v>301</v>
@@ -6065,27 +6068,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="B56">
-        <v>2.6162844662375901</v>
+        <v>2.36203796533791</v>
       </c>
       <c r="C56" s="1">
-        <v>6.2269533956253297E-11</v>
+        <v>1.4464958090844801E-6</v>
       </c>
       <c r="D56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>363</v>
+        <v>166</v>
       </c>
       <c r="B57">
-        <v>2.6269949936955501</v>
-      </c>
-      <c r="C57">
-        <v>1.72891228382556E-3</v>
+        <v>2.43390602858867</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.9675515435838402E-12</v>
       </c>
       <c r="D57" t="s">
         <v>301</v>
@@ -6093,24 +6096,24 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="B58">
-        <v>3.1404070643022202</v>
+        <v>2.6269949936955501</v>
       </c>
       <c r="C58">
-        <v>3.1506980233663301E-3</v>
+        <v>1.72891228382556E-3</v>
       </c>
       <c r="D58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4800" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4800" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D4812">
-    <sortCondition ref="B2:B4812"/>
+  <sortState ref="A2:D4800">
+    <sortCondition ref="D2:D4800"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6121,7 +6124,7 @@
   <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6142,27 +6145,27 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>-7.6689265496975496</v>
+        <v>-7.2121078960545599</v>
       </c>
       <c r="C2" s="1">
-        <v>4.6760722260386398E-29</v>
+        <v>8.6756947594867203E-27</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="B3">
-        <v>-7.2121078960545599</v>
+        <v>-4.2459143640713597</v>
       </c>
       <c r="C3" s="1">
-        <v>8.6756947594867203E-27</v>
+        <v>7.1155346368963702E-8</v>
       </c>
       <c r="D3" t="s">
         <v>305</v>
@@ -6170,83 +6173,83 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>-6.0837948165619302</v>
+        <v>-3.53811255749156</v>
       </c>
       <c r="C4" s="1">
-        <v>1.60383801553583E-36</v>
+        <v>2.0179233352877999E-10</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="B5">
-        <v>-5.9947518886135001</v>
+        <v>-2.3416840193189898</v>
       </c>
       <c r="C5" s="1">
-        <v>1.7902828699251501E-32</v>
+        <v>1.70251258533216E-5</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="B6">
-        <v>-4.7582293004574003</v>
+        <v>-1.9830739981101599</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0872061754399399E-7</v>
+        <v>2.09767050037368E-6</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="B7">
-        <v>-4.6688377924723303</v>
+        <v>-1.90711659635402</v>
       </c>
       <c r="C7" s="1">
-        <v>1.05117202431278E-7</v>
+        <v>6.5678686260637595E-5</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>-4.4434091133235301</v>
+        <v>-1.7621380082196201</v>
       </c>
       <c r="C8" s="1">
-        <v>2.4248552925812399E-11</v>
+        <v>8.7264576183439998E-8</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>154</v>
       </c>
       <c r="B9">
-        <v>-4.2459143640713597</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7.1155346368963702E-8</v>
+        <v>-1.04120666659745</v>
+      </c>
+      <c r="C9">
+        <v>4.0533462684154203E-3</v>
       </c>
       <c r="D9" t="s">
         <v>305</v>
@@ -6254,44 +6257,44 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>146</v>
       </c>
       <c r="B10">
-        <v>-4.14971153578702</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.4817414158888999E-12</v>
+        <v>1.28110174577923</v>
+      </c>
+      <c r="C10">
+        <v>5.6779622773353699E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B11">
-        <v>-4.0178527621206497</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.23160989114109E-6</v>
+        <v>1.7914217989586401</v>
+      </c>
+      <c r="C11">
+        <v>2.96443917588426E-3</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>-3.9336878443735102</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5.9431474422410398E-69</v>
+        <v>2.4081688048400598</v>
+      </c>
+      <c r="C12">
+        <v>4.9018713472023401E-3</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H12" t="s">
         <v>307</v>
@@ -6311,16 +6314,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-3.8735645832418499</v>
+        <v>5.1401942918929704</v>
       </c>
       <c r="C13" s="1">
-        <v>1.5969344532642001E-22</v>
+        <v>6.7787760618573603E-11</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G13" t="s">
         <v>312</v>
@@ -6343,16 +6346,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>-3.76343516608391</v>
+        <v>-5.9947518886135001</v>
       </c>
       <c r="C14" s="1">
-        <v>4.7710666474751404E-6</v>
+        <v>1.7902828699251501E-32</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G14" t="s">
         <v>318</v>
@@ -6378,16 +6381,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>366</v>
       </c>
       <c r="B15">
-        <v>-3.75675063654201</v>
+        <v>-4.14971153578702</v>
       </c>
       <c r="C15" s="1">
-        <v>3.7823746861896799E-47</v>
+        <v>1.4817414158888999E-12</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G15" t="s">
         <v>320</v>
@@ -6448,16 +6451,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B17">
-        <v>-3.73994417862207</v>
+        <v>-2.4956911065764</v>
       </c>
       <c r="C17" s="1">
-        <v>7.87961714100675E-17</v>
+        <v>6.9510534079039301E-8</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G17" t="s">
         <v>322</v>
@@ -6483,16 +6486,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="B18">
-        <v>-3.53811255749156</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.0179233352877999E-10</v>
+        <v>-2.1264648876917001</v>
+      </c>
+      <c r="C18">
+        <v>4.9569928031933995E-4</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G18" t="s">
         <v>323</v>
@@ -6518,72 +6521,72 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B19">
-        <v>-3.2864914323324599</v>
-      </c>
-      <c r="C19">
-        <v>3.4705387047410702E-3</v>
+        <v>-1.97909665743523</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.9510534079039301E-8</v>
       </c>
       <c r="D19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B20">
-        <v>-3.1137859467717699</v>
-      </c>
-      <c r="C20">
-        <v>2.2721466485711901E-4</v>
+        <v>-1.9737365437752601</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9.6744573123607103E-6</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B21">
-        <v>-2.9826785135336</v>
+        <v>-1.6777281993344899</v>
       </c>
       <c r="C21" s="1">
-        <v>9.2927255339339498E-8</v>
+        <v>3.0726604659231198E-9</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>-2.95144805574335</v>
+        <v>-1.6595385554848101</v>
       </c>
       <c r="C22" s="1">
-        <v>6.8642854965838795E-8</v>
+        <v>4.4876577363082098E-12</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>371</v>
       </c>
       <c r="B23">
-        <v>-2.9282916697135799</v>
+        <v>-1.6404012427524</v>
       </c>
       <c r="C23">
-        <v>1.7179480496944E-4</v>
+        <v>8.8835734639007308E-3</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H23" t="s">
         <v>378</v>
@@ -6591,16 +6594,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>-2.89487948455904</v>
+        <v>-1.5787036591963901</v>
       </c>
       <c r="C24" s="1">
-        <v>2.6392274862981301E-21</v>
+        <v>2.8258826101797002E-15</v>
       </c>
       <c r="D24" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H24">
         <v>12.364864864864865</v>
@@ -6608,111 +6611,111 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B25">
-        <v>-2.8671921075211699</v>
+        <v>-1.4805202451915001</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0649909970214899E-14</v>
+        <v>1.53881100027606E-6</v>
       </c>
       <c r="D25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>360</v>
+        <v>121</v>
       </c>
       <c r="B26">
-        <v>-2.8175478015320401</v>
+        <v>-1.4030642856417701</v>
       </c>
       <c r="C26">
-        <v>1.9799811182299499E-4</v>
+        <v>5.4339729935155802E-4</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B27">
-        <v>-2.8056595652655001</v>
+        <v>-1.30277528112916</v>
       </c>
       <c r="C27" s="1">
-        <v>8.64882143712882E-10</v>
+        <v>5.1611889450124004E-6</v>
       </c>
       <c r="D27" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B28">
-        <v>-2.7952142843684298</v>
+        <v>-1.28581079221495</v>
       </c>
       <c r="C28">
-        <v>2.0620266628681599E-3</v>
+        <v>1.50779888099556E-3</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="B29">
-        <v>-2.6662506919664399</v>
-      </c>
-      <c r="C29" s="1">
-        <v>9.1066875386000502E-17</v>
+        <v>-1.2101594613931801</v>
+      </c>
+      <c r="C29">
+        <v>4.1835177319112199E-4</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>368</v>
+        <v>113</v>
       </c>
       <c r="B30">
-        <v>-2.6487489330045202</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.42460661561727E-5</v>
+        <v>-1.15998450268803</v>
+      </c>
+      <c r="C30">
+        <v>1.8914910440375699E-4</v>
       </c>
       <c r="D30" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>-2.5155110914255001</v>
+        <v>-1.12588991828389</v>
       </c>
       <c r="C31" s="1">
-        <v>2.6128089648554998E-7</v>
+        <v>1.3217916195657399E-9</v>
       </c>
       <c r="D31" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>-2.4956911065764</v>
+        <v>-1.12378624789226</v>
       </c>
       <c r="C32" s="1">
-        <v>6.9510534079039301E-8</v>
+        <v>1.62460210739187E-13</v>
       </c>
       <c r="D32" t="s">
         <v>304</v>
@@ -6720,139 +6723,139 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="B33">
-        <v>-2.4832261923147798</v>
-      </c>
-      <c r="C33" s="1">
-        <v>6.3441644863569498E-11</v>
+        <v>-1.12358912794794</v>
+      </c>
+      <c r="C33">
+        <v>1.7387161847721899E-3</v>
       </c>
       <c r="D33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B34">
-        <v>-2.47089562433939</v>
+        <v>-1.12203982122896</v>
       </c>
       <c r="C34" s="1">
-        <v>4.4084539248299202E-15</v>
+        <v>1.0568402595461999E-5</v>
       </c>
       <c r="D34" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="B35">
-        <v>-2.4554027443683801</v>
+        <v>-1.1098557542894001</v>
       </c>
       <c r="C35">
-        <v>8.4481238514047801E-4</v>
+        <v>5.6929346729997499E-4</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>-2.4505161121204102</v>
+        <v>-1.0759556217807</v>
       </c>
       <c r="C36" s="1">
-        <v>1.49512271315077E-9</v>
+        <v>2.5530609224549498E-21</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37">
-        <v>-2.4388671027213902</v>
+        <v>-1.0510430840957301</v>
       </c>
       <c r="C37" s="1">
-        <v>2.5454620327080898E-7</v>
+        <v>9.3134510372170395E-7</v>
       </c>
       <c r="D37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B38">
-        <v>-2.3416840193189898</v>
+        <v>-1.0500779281035</v>
       </c>
       <c r="C38" s="1">
-        <v>1.70251258533216E-5</v>
+        <v>2.06093634766728E-5</v>
       </c>
       <c r="D38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B39">
-        <v>-2.3116981902300102</v>
+        <v>-1.04972421813907</v>
       </c>
       <c r="C39" s="1">
-        <v>5.1611889450124004E-6</v>
+        <v>1.93848166372467E-6</v>
       </c>
       <c r="D39" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-2.2958568744606902</v>
+        <v>-1.0362515452390799</v>
       </c>
       <c r="C40" s="1">
-        <v>8.2760382619092999E-6</v>
+        <v>8.3664215751055501E-9</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>352</v>
+        <v>157</v>
       </c>
       <c r="B41">
-        <v>-2.2707892692535698</v>
+        <v>-1.01268908326305</v>
       </c>
       <c r="C41">
-        <v>5.6418519750230599E-4</v>
+        <v>3.71370516821977E-3</v>
       </c>
       <c r="D41" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B42">
-        <v>-2.1264648876917001</v>
-      </c>
-      <c r="C42">
-        <v>4.9569928031933995E-4</v>
+        <v>1.0074471084626</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.5068215741848399E-5</v>
       </c>
       <c r="D42" t="s">
         <v>304</v>
@@ -6860,69 +6863,69 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>-2.0483093527382898</v>
-      </c>
-      <c r="C43">
-        <v>2.8118361004078399E-3</v>
+        <v>1.06337339305337</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6.3441644863569498E-11</v>
       </c>
       <c r="D43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B44">
-        <v>-2.0337324405246999</v>
-      </c>
-      <c r="C44">
-        <v>1.7529034921659399E-4</v>
+        <v>1.0747962202093699</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.7147498913342801E-8</v>
       </c>
       <c r="D44" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>374</v>
+        <v>124</v>
       </c>
       <c r="B45">
-        <v>-1.9920839016859899</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2.0251052947107401E-6</v>
+        <v>1.2507140450424901</v>
+      </c>
+      <c r="C45">
+        <v>3.4532252353348101E-4</v>
       </c>
       <c r="D45" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>377</v>
+        <v>114</v>
       </c>
       <c r="B46">
-        <v>-1.9830739981101599</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2.09767050037368E-6</v>
+        <v>1.46358163136814</v>
+      </c>
+      <c r="C46">
+        <v>4.34863825145778E-4</v>
       </c>
       <c r="D46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>353</v>
+        <v>141</v>
       </c>
       <c r="B47">
-        <v>-1.97909665743523</v>
-      </c>
-      <c r="C47" s="1">
-        <v>6.9510534079039301E-8</v>
+        <v>1.4936613058930299</v>
+      </c>
+      <c r="C47">
+        <v>1.2607167546791901E-3</v>
       </c>
       <c r="D47" t="s">
         <v>304</v>
@@ -6930,13 +6933,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>-1.9737365437752601</v>
+        <v>1.4963066431987999</v>
       </c>
       <c r="C48" s="1">
-        <v>9.6744573123607103E-6</v>
+        <v>3.8961800208379299E-19</v>
       </c>
       <c r="D48" t="s">
         <v>304</v>
@@ -6944,139 +6947,139 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>-1.95739497486105</v>
+        <v>2.7806681969509901</v>
       </c>
       <c r="C49" s="1">
-        <v>3.0726604659231198E-9</v>
+        <v>1.86221300272943E-12</v>
       </c>
       <c r="D49" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B50">
-        <v>-1.9112778692646699</v>
+        <v>3.5220357366373798</v>
       </c>
       <c r="C50" s="1">
-        <v>9.8839572397591907E-10</v>
+        <v>7.4494320504537402E-5</v>
       </c>
       <c r="D50" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="B51">
-        <v>-1.90711659635402</v>
+        <v>-3.8735645832418499</v>
       </c>
       <c r="C51" s="1">
-        <v>6.5678686260637595E-5</v>
+        <v>1.5969344532642001E-22</v>
       </c>
       <c r="D51" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="B52">
-        <v>-1.89363477630516</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.1126946786313399E-6</v>
+        <v>-3.2864914323324599</v>
+      </c>
+      <c r="C52">
+        <v>3.4705387047410702E-3</v>
       </c>
       <c r="D52" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B53">
-        <v>-1.89058980695025</v>
+        <v>-2.5155110914255001</v>
       </c>
       <c r="C53" s="1">
-        <v>1.0568402595461999E-5</v>
+        <v>2.6128089648554998E-7</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B54">
-        <v>-1.88600676309771</v>
+        <v>-1.95739497486105</v>
       </c>
       <c r="C54" s="1">
-        <v>1.3336428259117499E-6</v>
+        <v>3.0726604659231198E-9</v>
       </c>
       <c r="D54" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B55">
-        <v>-1.8116525442339499</v>
+        <v>-1.9112778692646699</v>
       </c>
       <c r="C55" s="1">
-        <v>1.6663022796332399E-8</v>
+        <v>9.8839572397591907E-10</v>
       </c>
       <c r="D55" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>336</v>
+        <v>119</v>
       </c>
       <c r="B56">
-        <v>-1.7729355859048901</v>
+        <v>-1.7598829913557399</v>
       </c>
       <c r="C56">
-        <v>5.2420996928217295E-4</v>
+        <v>3.4315715338315798E-4</v>
       </c>
       <c r="D56" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B57">
-        <v>-1.7621380082196201</v>
+        <v>-1.70997400312542</v>
       </c>
       <c r="C57" s="1">
-        <v>8.7264576183439998E-8</v>
+        <v>2.2020570855113899E-13</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B58">
-        <v>-1.7598829913557399</v>
-      </c>
-      <c r="C58">
-        <v>3.4315715338315798E-4</v>
+        <v>-1.4296898464209</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3.4873632215919398E-6</v>
       </c>
       <c r="D58" t="s">
         <v>302</v>
@@ -7084,41 +7087,41 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B59">
-        <v>-1.7509009617547699</v>
+        <v>-1.22241910907672</v>
       </c>
       <c r="C59" s="1">
-        <v>1.7736435852297501E-12</v>
+        <v>6.4448329604771604E-11</v>
       </c>
       <c r="D59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B60">
-        <v>-1.7489323923256701</v>
+        <v>-1.21641551973355</v>
       </c>
       <c r="C60" s="1">
-        <v>3.0005024577940197E-11</v>
+        <v>3.8811189948177799E-12</v>
       </c>
       <c r="D60" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B61">
-        <v>-1.70997400312542</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2.2020570855113899E-13</v>
+        <v>-1.1404009231726799</v>
+      </c>
+      <c r="C61">
+        <v>1.0421535837074601E-4</v>
       </c>
       <c r="D61" t="s">
         <v>302</v>
@@ -7126,195 +7129,195 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="B62">
-        <v>-1.68537875141676</v>
-      </c>
-      <c r="C62" s="1">
-        <v>9.9336977225804406E-6</v>
+        <v>-1.02644068930442</v>
+      </c>
+      <c r="C62">
+        <v>6.6400737136529499E-3</v>
       </c>
       <c r="D62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="B63">
-        <v>-1.6777281993344899</v>
-      </c>
-      <c r="C63" s="1">
-        <v>3.0726604659231198E-9</v>
+        <v>-1.00262554714062</v>
+      </c>
+      <c r="C63">
+        <v>7.2056542321497601E-3</v>
       </c>
       <c r="D63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B64">
-        <v>-1.6595385554848101</v>
+        <v>1.0141978018343201</v>
       </c>
       <c r="C64" s="1">
-        <v>4.4876577363082098E-12</v>
+        <v>2.7293790739681601E-9</v>
       </c>
       <c r="D64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="B65">
-        <v>-1.6404012427524</v>
+        <v>1.12203068853776</v>
       </c>
       <c r="C65">
-        <v>8.8835734639007308E-3</v>
+        <v>4.7890837723307796E-3</v>
       </c>
       <c r="D65" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B66">
-        <v>-1.62896841662944</v>
+        <v>1.4405541035309599</v>
       </c>
       <c r="C66" s="1">
-        <v>1.76743330339905E-13</v>
+        <v>6.2818906692897094E-5</v>
       </c>
       <c r="D66" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="B67">
-        <v>-1.5787036591963901</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2.8258826101797002E-15</v>
+        <v>1.44353879470673</v>
+      </c>
+      <c r="C67">
+        <v>7.6365981961881903E-3</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B68">
-        <v>-1.56416515641902</v>
+        <v>1.93997439655834</v>
       </c>
       <c r="C68">
-        <v>2.7556062477867402E-3</v>
+        <v>9.5945185582413505E-3</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B69">
-        <v>-1.5623628302801</v>
+        <v>2.3453726412614002</v>
       </c>
       <c r="C69" s="1">
-        <v>7.8317683350086795E-12</v>
+        <v>7.7750874220754496E-5</v>
       </c>
       <c r="D69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B70">
-        <v>-1.52904356231788</v>
+        <v>-6.0837948165619302</v>
       </c>
       <c r="C70" s="1">
-        <v>8.8381392450318403E-13</v>
+        <v>1.60383801553583E-36</v>
       </c>
       <c r="D70" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B71">
-        <v>-1.5063293095905299</v>
+        <v>-4.7582293004574003</v>
       </c>
       <c r="C71" s="1">
-        <v>6.2721193956503101E-10</v>
+        <v>2.0872061754399399E-7</v>
       </c>
       <c r="D71" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>355</v>
       </c>
       <c r="B72">
-        <v>-1.4992870651227299</v>
-      </c>
-      <c r="C72">
-        <v>3.3439895522993199E-3</v>
+        <v>-4.6688377924723303</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.05117202431278E-7</v>
       </c>
       <c r="D72" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B73">
-        <v>-1.4805202451915001</v>
+        <v>-4.4434091133235301</v>
       </c>
       <c r="C73" s="1">
-        <v>1.53881100027606E-6</v>
+        <v>2.4248552925812399E-11</v>
       </c>
       <c r="D73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-1.4589826533518899</v>
-      </c>
-      <c r="C74">
-        <v>3.2249456178152E-4</v>
+        <v>-3.73994417862207</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7.87961714100675E-17</v>
       </c>
       <c r="D74" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>-1.45475393595931</v>
+        <v>-2.8671921075211699</v>
       </c>
       <c r="C75" s="1">
-        <v>1.9030025828058001E-6</v>
+        <v>1.0649909970214899E-14</v>
       </c>
       <c r="D75" t="s">
         <v>303</v>
@@ -7322,41 +7325,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="B76">
-        <v>-1.4296898464209</v>
-      </c>
-      <c r="C76" s="1">
-        <v>3.4873632215919398E-6</v>
+        <v>-2.7952142843684298</v>
+      </c>
+      <c r="C76">
+        <v>2.0620266628681599E-3</v>
       </c>
       <c r="D76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B77">
-        <v>-1.4030642856417701</v>
-      </c>
-      <c r="C77">
-        <v>5.4339729935155802E-4</v>
+        <v>-2.4832261923147798</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6.3441644863569498E-11</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>373</v>
       </c>
       <c r="B78">
-        <v>-1.3831160923357999</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1.82239679097025E-9</v>
+        <v>-2.4554027443683801</v>
+      </c>
+      <c r="C78">
+        <v>8.4481238514047801E-4</v>
       </c>
       <c r="D78" t="s">
         <v>303</v>
@@ -7364,13 +7367,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B79">
-        <v>-1.36542065109864</v>
+        <v>-2.4388671027213902</v>
       </c>
       <c r="C79" s="1">
-        <v>1.3512985262151499E-7</v>
+        <v>2.5454620327080898E-7</v>
       </c>
       <c r="D79" t="s">
         <v>303</v>
@@ -7378,111 +7381,111 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="B80">
-        <v>-1.36496451177615</v>
+        <v>-2.2958568744606902</v>
       </c>
       <c r="C80" s="1">
-        <v>1.20834469246795E-6</v>
+        <v>8.2760382619092999E-6</v>
       </c>
       <c r="D80" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-1.3318190567685999</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2.32841459355574E-5</v>
+        <v>-2.0483093527382898</v>
+      </c>
+      <c r="C81">
+        <v>2.8118361004078399E-3</v>
       </c>
       <c r="D81" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-1.3202238626588401</v>
-      </c>
-      <c r="C82">
-        <v>2.6675396828173197E-4</v>
+        <v>-1.89058980695025</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1.0568402595461999E-5</v>
       </c>
       <c r="D82" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B83">
-        <v>-1.30277528112916</v>
+        <v>-1.68537875141676</v>
       </c>
       <c r="C83" s="1">
-        <v>5.1611889450124004E-6</v>
+        <v>9.9336977225804406E-6</v>
       </c>
       <c r="D83" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="B84">
-        <v>-1.28936959569554</v>
-      </c>
-      <c r="C84" s="1">
-        <v>5.6295306840808801E-9</v>
+        <v>-1.56416515641902</v>
+      </c>
+      <c r="C84">
+        <v>2.7556062477867402E-3</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="B85">
-        <v>-1.28581079221495</v>
-      </c>
-      <c r="C85">
-        <v>1.50779888099556E-3</v>
+        <v>-1.5623628302801</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7.8317683350086795E-12</v>
       </c>
       <c r="D85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B86">
-        <v>-1.28447008064668</v>
+        <v>-1.45475393595931</v>
       </c>
       <c r="C86" s="1">
-        <v>3.9682563996628897E-5</v>
+        <v>1.9030025828058001E-6</v>
       </c>
       <c r="D86" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B87">
-        <v>-1.2615189827521101</v>
+        <v>-1.3831160923357999</v>
       </c>
       <c r="C87" s="1">
-        <v>1.0185687374104301E-12</v>
+        <v>1.82239679097025E-9</v>
       </c>
       <c r="D87" t="s">
         <v>303</v>
@@ -7490,30 +7493,30 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B88">
-        <v>-1.2335351090384099</v>
+        <v>-1.36542065109864</v>
       </c>
       <c r="C88" s="1">
-        <v>1.2300478815329299E-8</v>
+        <v>1.3512985262151499E-7</v>
       </c>
       <c r="D88" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B89">
-        <v>-1.2248765836208599</v>
-      </c>
-      <c r="C89">
-        <v>2.25544122315196E-4</v>
+        <v>-1.2615189827521101</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1.0185687374104301E-12</v>
       </c>
       <c r="D89" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -7532,55 +7535,55 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="B91">
-        <v>-1.22241910907672</v>
+        <v>-1.1868407872887199</v>
       </c>
       <c r="C91" s="1">
-        <v>6.4448329604771604E-11</v>
+        <v>3.9682563996628897E-5</v>
       </c>
       <c r="D91" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B92">
-        <v>-1.21641551973355</v>
+        <v>-1.1695255825422</v>
       </c>
       <c r="C92" s="1">
-        <v>3.8811189948177799E-12</v>
+        <v>3.3872346392385503E-8</v>
       </c>
       <c r="D92" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>346</v>
       </c>
       <c r="B93">
-        <v>-1.2101594613931801</v>
-      </c>
-      <c r="C93">
-        <v>4.1835177319112199E-4</v>
+        <v>-1.07610116305383</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.6254035189711999E-7</v>
       </c>
       <c r="D93" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>351</v>
+        <v>155</v>
       </c>
       <c r="B94">
-        <v>-1.1868407872887199</v>
-      </c>
-      <c r="C94" s="1">
-        <v>3.9682563996628897E-5</v>
+        <v>-1.0173477041261001</v>
+      </c>
+      <c r="C94">
+        <v>5.1807316054069104E-3</v>
       </c>
       <c r="D94" t="s">
         <v>303</v>
@@ -7588,27 +7591,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B95">
-        <v>-1.1757401458069301</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1.53881100027606E-6</v>
+        <v>1.06413206883887</v>
+      </c>
+      <c r="C95">
+        <v>2.8444208307055801E-4</v>
       </c>
       <c r="D95" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="B96">
-        <v>-1.1695255825422</v>
-      </c>
-      <c r="C96" s="1">
-        <v>3.3872346392385503E-8</v>
+        <v>1.23327394681613</v>
+      </c>
+      <c r="C96">
+        <v>2.1993651815386101E-3</v>
       </c>
       <c r="D96" t="s">
         <v>303</v>
@@ -7616,153 +7619,153 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B97">
-        <v>-1.15998450268803</v>
+        <v>1.29016702680171</v>
       </c>
       <c r="C97">
-        <v>1.8914910440375699E-4</v>
+        <v>9.3008646501368808E-3</v>
       </c>
       <c r="D97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="B98">
-        <v>-1.15687420703495</v>
-      </c>
-      <c r="C98">
-        <v>1.13743289708248E-3</v>
+        <v>1.31436436567328</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2.9825357262264001E-6</v>
       </c>
       <c r="D98" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B99">
-        <v>-1.1404009231726799</v>
-      </c>
-      <c r="C99">
-        <v>1.0421535837074601E-4</v>
+        <v>1.5462723807063801</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4.41563812614501E-8</v>
       </c>
       <c r="D99" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="B100">
-        <v>-1.13409064687258</v>
-      </c>
-      <c r="C100" s="1">
-        <v>3.1193141945355899E-6</v>
+        <v>1.99271692940359</v>
+      </c>
+      <c r="C100">
+        <v>2.4793843798552699E-3</v>
       </c>
       <c r="D100" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B101">
-        <v>-1.12588991828389</v>
+        <v>2.3168488721189102</v>
       </c>
       <c r="C101" s="1">
-        <v>1.3217916195657399E-9</v>
+        <v>1.0311290162374899E-11</v>
       </c>
       <c r="D101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B102">
-        <v>-1.12378624789226</v>
+        <v>2.4090509207605102</v>
       </c>
       <c r="C102" s="1">
-        <v>1.62460210739187E-13</v>
+        <v>5.3378053586107295E-19</v>
       </c>
       <c r="D102" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>361</v>
+        <v>34</v>
       </c>
       <c r="B103">
-        <v>-1.12358912794794</v>
-      </c>
-      <c r="C103">
-        <v>1.7387161847721899E-3</v>
+        <v>2.4297636580055499</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1.4043612857038101E-11</v>
       </c>
       <c r="D103" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="B104">
-        <v>-1.12203982122896</v>
+        <v>3.6007197792757202</v>
       </c>
       <c r="C104" s="1">
-        <v>1.0568402595461999E-5</v>
+        <v>8.56186047438118E-7</v>
       </c>
       <c r="D104" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="B105">
-        <v>-1.1098557542894001</v>
-      </c>
-      <c r="C105">
-        <v>5.6929346729997499E-4</v>
+        <v>4.6291379683980898</v>
+      </c>
+      <c r="C105" s="1">
+        <v>6.74559525451624E-16</v>
       </c>
       <c r="D105" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>359</v>
+        <v>14</v>
       </c>
       <c r="B106">
-        <v>-1.1073140721971499</v>
-      </c>
-      <c r="C106">
-        <v>3.9909388046028603E-3</v>
+        <v>6.2336391137190201</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3.7079778265203301E-22</v>
       </c>
       <c r="D106" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>346</v>
+        <v>102</v>
       </c>
       <c r="B107">
-        <v>-1.07610116305383</v>
+        <v>7.8986441021666502</v>
       </c>
       <c r="C107" s="1">
-        <v>1.6254035189711999E-7</v>
+        <v>1.4419029389082099E-19</v>
       </c>
       <c r="D107" t="s">
         <v>303</v>
@@ -7770,27 +7773,27 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B108">
-        <v>-1.0759556217807</v>
+        <v>-7.6689265496975496</v>
       </c>
       <c r="C108" s="1">
-        <v>2.5530609224549498E-21</v>
+        <v>4.6760722260386398E-29</v>
       </c>
       <c r="D108" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B109">
-        <v>-1.0628481842125901</v>
-      </c>
-      <c r="C109">
-        <v>3.7918751888049203E-4</v>
+        <v>-4.0178527621206497</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1.23160989114109E-6</v>
       </c>
       <c r="D109" t="s">
         <v>301</v>
@@ -7798,13 +7801,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>354</v>
       </c>
       <c r="B110">
-        <v>-1.06133679949582</v>
+        <v>-3.9336878443735102</v>
       </c>
       <c r="C110" s="1">
-        <v>1.29612891165107E-11</v>
+        <v>5.9431474422410398E-69</v>
       </c>
       <c r="D110" t="s">
         <v>301</v>
@@ -7812,13 +7815,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>143</v>
+        <v>363</v>
       </c>
       <c r="B111">
-        <v>-1.0539821315295601</v>
-      </c>
-      <c r="C111">
-        <v>1.0848758380732099E-3</v>
+        <v>-3.76343516608391</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4.7710666474751404E-6</v>
       </c>
       <c r="D111" t="s">
         <v>301</v>
@@ -7826,83 +7829,83 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B112">
-        <v>-1.0510430840957301</v>
+        <v>-3.75675063654201</v>
       </c>
       <c r="C112" s="1">
-        <v>9.3134510372170395E-7</v>
+        <v>3.7823746861896799E-47</v>
       </c>
       <c r="D112" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B113">
-        <v>-1.0500779281035</v>
-      </c>
-      <c r="C113" s="1">
-        <v>2.06093634766728E-5</v>
+        <v>-3.1137859467717699</v>
+      </c>
+      <c r="C113">
+        <v>2.2721466485711901E-4</v>
       </c>
       <c r="D113" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B114">
-        <v>-1.04972421813907</v>
+        <v>-2.9826785135336</v>
       </c>
       <c r="C114" s="1">
-        <v>1.93848166372467E-6</v>
+        <v>9.2927255339339498E-8</v>
       </c>
       <c r="D114" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>154</v>
+        <v>369</v>
       </c>
       <c r="B115">
-        <v>-1.04120666659745</v>
-      </c>
-      <c r="C115">
-        <v>4.0533462684154203E-3</v>
+        <v>-2.95144805574335</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6.8642854965838795E-8</v>
       </c>
       <c r="D115" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="B116">
-        <v>-1.0362515452390799</v>
-      </c>
-      <c r="C116" s="1">
-        <v>8.3664215751055501E-9</v>
+        <v>-2.9282916697135799</v>
+      </c>
+      <c r="C116">
+        <v>1.7179480496944E-4</v>
       </c>
       <c r="D116" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B117">
-        <v>-1.03283347391278</v>
+        <v>-2.89487948455904</v>
       </c>
       <c r="C117" s="1">
-        <v>3.8346283617060199E-8</v>
+        <v>2.6392274862981301E-21</v>
       </c>
       <c r="D117" t="s">
         <v>301</v>
@@ -7910,41 +7913,41 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B118">
-        <v>-1.02644068930442</v>
+        <v>-2.8175478015320401</v>
       </c>
       <c r="C118">
-        <v>6.6400737136529499E-3</v>
+        <v>1.9799811182299499E-4</v>
       </c>
       <c r="D118" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="B119">
-        <v>-1.0173477041261001</v>
-      </c>
-      <c r="C119">
-        <v>5.1807316054069104E-3</v>
+        <v>-2.8056595652655001</v>
+      </c>
+      <c r="C119" s="1">
+        <v>8.64882143712882E-10</v>
       </c>
       <c r="D119" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B120">
-        <v>-1.01298262476941</v>
+        <v>-2.6662506919664399</v>
       </c>
       <c r="C120" s="1">
-        <v>5.6920401829225002E-5</v>
+        <v>9.1066875386000502E-17</v>
       </c>
       <c r="D120" t="s">
         <v>301</v>
@@ -7952,111 +7955,111 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>368</v>
       </c>
       <c r="B121">
-        <v>-1.01268908326305</v>
-      </c>
-      <c r="C121">
-        <v>3.71370516821977E-3</v>
+        <v>-2.6487489330045202</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1.42460661561727E-5</v>
       </c>
       <c r="D121" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="B122">
-        <v>-1.00262554714062</v>
-      </c>
-      <c r="C122">
-        <v>7.2056542321497601E-3</v>
+        <v>-2.47089562433939</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4.4084539248299202E-15</v>
       </c>
       <c r="D122" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B123">
-        <v>1.0074471084626</v>
+        <v>-2.4505161121204102</v>
       </c>
       <c r="C123" s="1">
-        <v>1.5068215741848399E-5</v>
+        <v>1.49512271315077E-9</v>
       </c>
       <c r="D123" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B124">
-        <v>1.0141978018343201</v>
+        <v>-2.3116981902300102</v>
       </c>
       <c r="C124" s="1">
-        <v>2.7293790739681601E-9</v>
+        <v>5.1611889450124004E-6</v>
       </c>
       <c r="D124" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="B125">
-        <v>1.06337339305337</v>
-      </c>
-      <c r="C125" s="1">
-        <v>6.3441644863569498E-11</v>
+        <v>-2.2707892692535698</v>
+      </c>
+      <c r="C125">
+        <v>5.6418519750230599E-4</v>
       </c>
       <c r="D125" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B126">
-        <v>1.06413206883887</v>
+        <v>-2.0337324405246999</v>
       </c>
       <c r="C126">
-        <v>2.8444208307055801E-4</v>
+        <v>1.7529034921659399E-4</v>
       </c>
       <c r="D126" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="B127">
-        <v>1.0747962202093699</v>
+        <v>-1.9920839016859899</v>
       </c>
       <c r="C127" s="1">
-        <v>4.7147498913342801E-8</v>
+        <v>2.0251052947107401E-6</v>
       </c>
       <c r="D127" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B128">
-        <v>1.08008358526382</v>
+        <v>-1.89363477630516</v>
       </c>
       <c r="C128" s="1">
-        <v>4.0338220576990598E-6</v>
+        <v>1.1126946786313399E-6</v>
       </c>
       <c r="D128" t="s">
         <v>301</v>
@@ -8064,27 +8067,27 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="B129">
-        <v>1.12203068853776</v>
-      </c>
-      <c r="C129">
-        <v>4.7890837723307796E-3</v>
+        <v>-1.88600676309771</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1.3336428259117499E-6</v>
       </c>
       <c r="D129" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B130">
-        <v>1.15411377174061</v>
+        <v>-1.8116525442339499</v>
       </c>
       <c r="C130" s="1">
-        <v>3.9064379765751097E-9</v>
+        <v>1.6663022796332399E-8</v>
       </c>
       <c r="D130" t="s">
         <v>301</v>
@@ -8092,13 +8095,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="B131">
-        <v>1.1811851825922299</v>
+        <v>-1.7729355859048901</v>
       </c>
       <c r="C131">
-        <v>3.5534883933653898E-4</v>
+        <v>5.2420996928217295E-4</v>
       </c>
       <c r="D131" t="s">
         <v>301</v>
@@ -8106,13 +8109,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="B132">
-        <v>1.1858052500932399</v>
+        <v>-1.7509009617547699</v>
       </c>
       <c r="C132" s="1">
-        <v>2.8198612334002199E-5</v>
+        <v>1.7736435852297501E-12</v>
       </c>
       <c r="D132" t="s">
         <v>301</v>
@@ -8120,41 +8123,41 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="B133">
-        <v>1.23327394681613</v>
-      </c>
-      <c r="C133">
-        <v>2.1993651815386101E-3</v>
+        <v>-1.7489323923256701</v>
+      </c>
+      <c r="C133" s="1">
+        <v>3.0005024577940197E-11</v>
       </c>
       <c r="D133" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="B134">
-        <v>1.2507140450424901</v>
-      </c>
-      <c r="C134">
-        <v>3.4532252353348101E-4</v>
+        <v>-1.62896841662944</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1.76743330339905E-13</v>
       </c>
       <c r="D134" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>348</v>
+        <v>26</v>
       </c>
       <c r="B135">
-        <v>1.27976022599955</v>
-      </c>
-      <c r="C135">
-        <v>3.9916929471002201E-4</v>
+        <v>-1.52904356231788</v>
+      </c>
+      <c r="C135" s="1">
+        <v>8.8381392450318403E-13</v>
       </c>
       <c r="D135" t="s">
         <v>301</v>
@@ -8162,27 +8165,27 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="B136">
-        <v>1.28110174577923</v>
-      </c>
-      <c r="C136">
-        <v>5.6779622773353699E-3</v>
+        <v>-1.5063293095905299</v>
+      </c>
+      <c r="C136" s="1">
+        <v>6.2721193956503101E-10</v>
       </c>
       <c r="D136" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B137">
-        <v>1.2874663750869999</v>
-      </c>
-      <c r="C137" s="1">
-        <v>5.41992926565677E-7</v>
+        <v>-1.4992870651227299</v>
+      </c>
+      <c r="C137">
+        <v>3.3439895522993199E-3</v>
       </c>
       <c r="D137" t="s">
         <v>301</v>
@@ -8190,41 +8193,41 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B138">
-        <v>1.29016702680171</v>
+        <v>-1.4589826533518899</v>
       </c>
       <c r="C138">
-        <v>9.3008646501368808E-3</v>
+        <v>3.2249456178152E-4</v>
       </c>
       <c r="D138" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B139">
-        <v>1.31436436567328</v>
+        <v>-1.36496451177615</v>
       </c>
       <c r="C139" s="1">
-        <v>2.9825357262264001E-6</v>
+        <v>1.20834469246795E-6</v>
       </c>
       <c r="D139" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B140">
-        <v>1.3201815052092301</v>
-      </c>
-      <c r="C140">
-        <v>7.8033340434457998E-4</v>
+        <v>-1.3318190567685999</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2.32841459355574E-5</v>
       </c>
       <c r="D140" t="s">
         <v>301</v>
@@ -8232,13 +8235,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="B141">
-        <v>1.3476035549277701</v>
-      </c>
-      <c r="C141" s="1">
-        <v>7.4734514447412997E-7</v>
+        <v>-1.3202238626588401</v>
+      </c>
+      <c r="C141">
+        <v>2.6675396828173197E-4</v>
       </c>
       <c r="D141" t="s">
         <v>301</v>
@@ -8246,13 +8249,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B142">
-        <v>1.3498875886969901</v>
+        <v>-1.28936959569554</v>
       </c>
       <c r="C142" s="1">
-        <v>1.02381424009143E-5</v>
+        <v>5.6295306840808801E-9</v>
       </c>
       <c r="D142" t="s">
         <v>301</v>
@@ -8260,55 +8263,55 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B143">
-        <v>1.4405541035309599</v>
+        <v>-1.28447008064668</v>
       </c>
       <c r="C143" s="1">
-        <v>6.2818906692897094E-5</v>
+        <v>3.9682563996628897E-5</v>
       </c>
       <c r="D143" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="B144">
-        <v>1.44353879470673</v>
-      </c>
-      <c r="C144">
-        <v>7.6365981961881903E-3</v>
+        <v>-1.2335351090384099</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1.2300478815329299E-8</v>
       </c>
       <c r="D144" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B145">
-        <v>1.46358163136814</v>
+        <v>-1.2248765836208599</v>
       </c>
       <c r="C145">
-        <v>4.34863825145778E-4</v>
+        <v>2.25544122315196E-4</v>
       </c>
       <c r="D145" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B146">
-        <v>1.4638975991549299</v>
-      </c>
-      <c r="C146">
-        <v>9.3461543145346103E-4</v>
+        <v>-1.1757401458069301</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1.53881100027606E-6</v>
       </c>
       <c r="D146" t="s">
         <v>301</v>
@@ -8316,13 +8319,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B147">
-        <v>1.4876186396489699</v>
+        <v>-1.15687420703495</v>
       </c>
       <c r="C147">
-        <v>2.4000309063256999E-3</v>
+        <v>1.13743289708248E-3</v>
       </c>
       <c r="D147" t="s">
         <v>301</v>
@@ -8330,55 +8333,55 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="B148">
-        <v>1.4936613058930299</v>
-      </c>
-      <c r="C148">
-        <v>1.2607167546791901E-3</v>
+        <v>-1.13409064687258</v>
+      </c>
+      <c r="C148" s="1">
+        <v>3.1193141945355899E-6</v>
       </c>
       <c r="D148" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="B149">
-        <v>1.4963066431987999</v>
-      </c>
-      <c r="C149" s="1">
-        <v>3.8961800208379299E-19</v>
+        <v>-1.1073140721971499</v>
+      </c>
+      <c r="C149">
+        <v>3.9909388046028603E-3</v>
       </c>
       <c r="D149" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="B150">
-        <v>1.5462723807063801</v>
-      </c>
-      <c r="C150" s="1">
-        <v>4.41563812614501E-8</v>
+        <v>-1.0628481842125901</v>
+      </c>
+      <c r="C150">
+        <v>3.7918751888049203E-4</v>
       </c>
       <c r="D150" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="B151">
-        <v>1.5527074221462001</v>
-      </c>
-      <c r="C151">
-        <v>5.7880809030732801E-4</v>
+        <v>-1.06133679949582</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1.29612891165107E-11</v>
       </c>
       <c r="D151" t="s">
         <v>301</v>
@@ -8386,13 +8389,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B152">
-        <v>1.73791006863863</v>
-      </c>
-      <c r="C152" s="1">
-        <v>1.09857967427497E-5</v>
+        <v>-1.0539821315295601</v>
+      </c>
+      <c r="C152">
+        <v>1.0848758380732099E-3</v>
       </c>
       <c r="D152" t="s">
         <v>301</v>
@@ -8400,41 +8403,41 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="B153">
-        <v>1.7914217989586401</v>
-      </c>
-      <c r="C153">
-        <v>2.96443917588426E-3</v>
+        <v>-1.03283347391278</v>
+      </c>
+      <c r="C153" s="1">
+        <v>3.8346283617060199E-8</v>
       </c>
       <c r="D153" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="B154">
-        <v>1.93997439655834</v>
-      </c>
-      <c r="C154">
-        <v>9.5945185582413505E-3</v>
+        <v>-1.01298262476941</v>
+      </c>
+      <c r="C154" s="1">
+        <v>5.6920401829225002E-5</v>
       </c>
       <c r="D154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B155">
-        <v>1.9637751583782099</v>
+        <v>1.08008358526382</v>
       </c>
       <c r="C155" s="1">
-        <v>2.8449923156464198E-17</v>
+        <v>4.0338220576990598E-6</v>
       </c>
       <c r="D155" t="s">
         <v>301</v>
@@ -8442,27 +8445,27 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="B156">
-        <v>1.99271692940359</v>
-      </c>
-      <c r="C156">
-        <v>2.4793843798552699E-3</v>
+        <v>1.15411377174061</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3.9064379765751097E-9</v>
       </c>
       <c r="D156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>367</v>
       </c>
       <c r="B157">
-        <v>2.1588539154224802</v>
+        <v>1.1811851825922299</v>
       </c>
       <c r="C157">
-        <v>7.6757037062503096E-4</v>
+        <v>3.5534883933653898E-4</v>
       </c>
       <c r="D157" t="s">
         <v>301</v>
@@ -8470,13 +8473,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B158">
-        <v>2.1944336283781101</v>
+        <v>1.1858052500932399</v>
       </c>
       <c r="C158" s="1">
-        <v>1.0932513571244099E-7</v>
+        <v>2.8198612334002199E-5</v>
       </c>
       <c r="D158" t="s">
         <v>301</v>
@@ -8484,83 +8487,83 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="B159">
-        <v>2.3168488721189102</v>
-      </c>
-      <c r="C159" s="1">
-        <v>1.0311290162374899E-11</v>
+        <v>1.27976022599955</v>
+      </c>
+      <c r="C159">
+        <v>3.9916929471002201E-4</v>
       </c>
       <c r="D159" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B160">
-        <v>2.3453726412614002</v>
+        <v>1.2874663750869999</v>
       </c>
       <c r="C160" s="1">
-        <v>7.7750874220754496E-5</v>
+        <v>5.41992926565677E-7</v>
       </c>
       <c r="D160" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B161">
-        <v>2.4081688048400598</v>
+        <v>1.3201815052092301</v>
       </c>
       <c r="C161">
-        <v>4.9018713472023401E-3</v>
+        <v>7.8033340434457998E-4</v>
       </c>
       <c r="D161" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="B162">
-        <v>2.4090509207605102</v>
+        <v>1.3476035549277701</v>
       </c>
       <c r="C162" s="1">
-        <v>5.3378053586107295E-19</v>
+        <v>7.4734514447412997E-7</v>
       </c>
       <c r="D162" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="B163">
-        <v>2.4297636580055499</v>
+        <v>1.3498875886969901</v>
       </c>
       <c r="C163" s="1">
-        <v>1.4043612857038101E-11</v>
+        <v>1.02381424009143E-5</v>
       </c>
       <c r="D163" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="B164">
-        <v>2.6782448315222198</v>
-      </c>
-      <c r="C164" s="1">
-        <v>7.5811829230897695E-30</v>
+        <v>1.4638975991549299</v>
+      </c>
+      <c r="C164">
+        <v>9.3461543145346103E-4</v>
       </c>
       <c r="D164" t="s">
         <v>301</v>
@@ -8568,27 +8571,27 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="B165">
-        <v>2.7806681969509901</v>
-      </c>
-      <c r="C165" s="1">
-        <v>1.86221300272943E-12</v>
+        <v>1.4876186396489699</v>
+      </c>
+      <c r="C165">
+        <v>2.4000309063256999E-3</v>
       </c>
       <c r="D165" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B166">
-        <v>3.45180713671262</v>
+        <v>1.5527074221462001</v>
       </c>
       <c r="C166">
-        <v>1.7032479761828799E-3</v>
+        <v>5.7880809030732801E-4</v>
       </c>
       <c r="D166" t="s">
         <v>301</v>
@@ -8596,41 +8599,41 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B167">
-        <v>3.5220357366373798</v>
+        <v>1.73791006863863</v>
       </c>
       <c r="C167" s="1">
-        <v>7.4494320504537402E-5</v>
+        <v>1.09857967427497E-5</v>
       </c>
       <c r="D167" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="B168">
-        <v>3.6007197792757202</v>
+        <v>1.9637751583782099</v>
       </c>
       <c r="C168" s="1">
-        <v>8.56186047438118E-7</v>
+        <v>2.8449923156464198E-17</v>
       </c>
       <c r="D168" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="B169">
-        <v>4.44308937537593</v>
-      </c>
-      <c r="C169" s="1">
-        <v>1.15922016334564E-5</v>
+        <v>2.1588539154224802</v>
+      </c>
+      <c r="C169">
+        <v>7.6757037062503096E-4</v>
       </c>
       <c r="D169" t="s">
         <v>301</v>
@@ -8638,63 +8641,63 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B170">
-        <v>4.6291379683980898</v>
+        <v>2.1944336283781101</v>
       </c>
       <c r="C170" s="1">
-        <v>6.74559525451624E-16</v>
+        <v>1.0932513571244099E-7</v>
       </c>
       <c r="D170" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B171">
-        <v>5.1401942918929704</v>
+        <v>2.6782448315222198</v>
       </c>
       <c r="C171" s="1">
-        <v>6.7787760618573603E-11</v>
+        <v>7.5811829230897695E-30</v>
       </c>
       <c r="D171" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="B172">
-        <v>6.2336391137190201</v>
-      </c>
-      <c r="C172" s="1">
-        <v>3.7079778265203301E-22</v>
+        <v>3.45180713671262</v>
+      </c>
+      <c r="C172">
+        <v>1.7032479761828799E-3</v>
       </c>
       <c r="D172" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B173">
-        <v>7.8986441021666502</v>
+        <v>4.44308937537593</v>
       </c>
       <c r="C173" s="1">
-        <v>1.4419029389082099E-19</v>
+        <v>1.15922016334564E-5</v>
       </c>
       <c r="D173" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D4586">
-    <sortCondition ref="B2:B4586"/>
+  <sortState ref="A2:D173">
+    <sortCondition ref="D2:D173"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
